--- a/Analysis/pilot00/pilot00_coded.xlsx
+++ b/Analysis/pilot00/pilot00_coded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AE7AD2-E615-4B6D-AA78-97F83DB897EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE5715-961B-47C1-9699-42210756088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="780" windowWidth="11880" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11088" yWindow="672" windowWidth="11388" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="114">
   <si>
     <t>Response</t>
   </si>
@@ -267,6 +267,117 @@
   </si>
   <si>
     <t xml:space="preserve">guante </t>
+  </si>
+  <si>
+    <t>end of the audio file (44_066)</t>
+  </si>
+  <si>
+    <t>weird sound quality (16_808)</t>
+  </si>
+  <si>
+    <t>0(?)</t>
+  </si>
+  <si>
+    <t>weird sound quality (30_855)</t>
+  </si>
+  <si>
+    <t>weird sound quality (31_039)</t>
+  </si>
+  <si>
+    <t>a…guja</t>
+  </si>
+  <si>
+    <t>RepSwitch</t>
+  </si>
+  <si>
+    <t>nontarget</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>weird sound quality (59_184)</t>
+  </si>
+  <si>
+    <t>bad sound quality (51_920)</t>
+  </si>
+  <si>
+    <t>too close to the mic (56_521)</t>
+  </si>
+  <si>
+    <t>too close to the mic &amp; exhalation at the end of the word and to the last silent part (10_440)</t>
+  </si>
+  <si>
+    <t>too close to the mic (19_611)</t>
+  </si>
+  <si>
+    <t>too close to the mic (24_204)</t>
+  </si>
+  <si>
+    <t>too close to the mic (28_778)</t>
+  </si>
+  <si>
+    <t>probably too close to the mic -- very bad sound quality (47_205)</t>
+  </si>
+  <si>
+    <t>too close to the mic (51_888)</t>
+  </si>
+  <si>
+    <t>too close to the mic (01_060)</t>
+  </si>
+  <si>
+    <t>too close to the mic (19_432)</t>
+  </si>
+  <si>
+    <t>too close to the mic (37_857)</t>
+  </si>
+  <si>
+    <t>too close to the mic (51_729)</t>
+  </si>
+  <si>
+    <t>too close to the mic (05_532)</t>
+  </si>
+  <si>
+    <t>too close to the mic (14_836)</t>
+  </si>
+  <si>
+    <t>probably too close to the mic -- very bad sound quality (33_501)</t>
+  </si>
+  <si>
+    <t>too close to the mic (05_828)</t>
+  </si>
+  <si>
+    <t>too close to the mic (10_499)</t>
+  </si>
+  <si>
+    <t>too close to the mic (19_653)</t>
+  </si>
+  <si>
+    <t>too close to the mic (38_133)</t>
+  </si>
+  <si>
+    <t>too close to the mic (42_707) - seems like "guanto"</t>
+  </si>
+  <si>
+    <t>started speaking, then typed</t>
+  </si>
+  <si>
+    <t>started saying /θ/ and typed</t>
+  </si>
+  <si>
+    <t>too close to the mic (33_755)</t>
+  </si>
+  <si>
+    <t>too close to the mic (43_078)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breath as if to speak but didn't </t>
   </si>
 </sst>
 </file>
@@ -277,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +400,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -310,7 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -346,11 +466,15 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,13 +493,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}" name="Table1" displayName="Table1" ref="A1:H388" totalsRowShown="0">
-  <autoFilter ref="A1:H388" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}" name="Table1" displayName="Table1" ref="A1:I388" totalsRowShown="0">
+  <autoFilter ref="A1:I388" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{354DB6E8-09FC-4F97-84E7-38E95E278CFB}" name="Response"/>
     <tableColumn id="2" xr3:uid="{5D9C097B-01CD-43F0-8E83-38B9CC990E60}" name="Image"/>
     <tableColumn id="3" xr3:uid="{C3345187-C327-43E6-9AD9-E239A68BE69E}" name="Modality"/>
     <tableColumn id="4" xr3:uid="{B2AF79B6-152E-492A-B94B-F84F804A04FA}" name="Target"/>
+    <tableColumn id="9" xr3:uid="{76E61295-5F9F-468B-9B47-746973B9683E}" name="RepSwitch"/>
     <tableColumn id="5" xr3:uid="{20B98BC2-FDEE-4CD1-9063-15415FCF16C0}" name="Accuracy"/>
     <tableColumn id="6" xr3:uid="{CDF65C35-EA2C-4484-B7EB-005AF1CF1DA8}" name="RT"/>
     <tableColumn id="7" xr3:uid="{074FBC2B-814C-4C21-8F41-B2B857645DEF}" name="Duration"/>
@@ -682,22 +807,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H394"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="56.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,19 +836,22 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -736,17 +864,20 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1.034</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.58559300000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -759,17 +890,20 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1.340352</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.58575500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -782,10 +916,13 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -798,17 +935,20 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1.00884</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.60099100000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -821,17 +961,20 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.94482900000000003</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.64792299999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -844,10 +987,13 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -860,17 +1006,20 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.8080000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.57930099999999984</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -883,10 +1032,13 @@
       <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -899,10 +1051,13 @@
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -915,17 +1070,20 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>1.156982</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.7884500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -938,17 +1096,20 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2.0496470000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.60167799999999971</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -961,17 +1122,20 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>1.867181</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.56761600000000012</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -984,10 +1148,13 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1000,17 +1167,20 @@
       <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>1.8863939999999999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.46576100000000031</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1020,10 +1190,13 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1033,10 +1206,13 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1049,17 +1225,20 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2.081054</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.59995799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1069,10 +1248,13 @@
       <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1082,10 +1264,13 @@
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1098,17 +1283,20 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>1.0780650000000001</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0.65222699999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1118,10 +1306,13 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1134,17 +1325,20 @@
       <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>1.2569999999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>0.68484300000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1154,10 +1348,13 @@
       <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1167,10 +1364,13 @@
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1183,17 +1383,20 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>1.177</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.62200600000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1203,10 +1406,13 @@
       <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1216,10 +1422,13 @@
       <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1232,17 +1441,20 @@
       <c r="D29" t="s">
         <v>42</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>1.080554</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>0.69009199999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1252,10 +1464,13 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -1265,10 +1480,13 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -1278,10 +1496,13 @@
       <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1294,17 +1515,20 @@
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1.3553759999999999</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <v>0.43207499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1317,17 +1541,20 @@
       <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>0.51585499999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -1337,10 +1564,13 @@
       <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1353,17 +1583,20 @@
       <c r="D36" t="s">
         <v>42</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>1.288</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>0.51128799999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -1373,10 +1606,13 @@
       <c r="D37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1389,17 +1625,20 @@
       <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>1.1384069999999999</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>0.65137100000000014</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -1409,10 +1648,13 @@
       <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -1422,10 +1664,13 @@
       <c r="D40" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1438,17 +1683,20 @@
       <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1.0754090000000001</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>0.62238199999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1461,17 +1709,20 @@
       <c r="D42" t="s">
         <v>41</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1.065631</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <v>0.82639299999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>17</v>
       </c>
@@ -1481,10 +1732,13 @@
       <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1497,17 +1751,20 @@
       <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1.268651</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>0.62085000000000012</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1520,17 +1777,20 @@
       <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>0.897729</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <v>0.60247099999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1543,20 +1803,23 @@
       <c r="D46" t="s">
         <v>42</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>0.89530100000000001</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>0.568774</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>20</v>
       </c>
@@ -1566,10 +1829,13 @@
       <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1582,17 +1848,20 @@
       <c r="D48" t="s">
         <v>40</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48">
         <v>1</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1.284375</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>0.62017600000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -1602,10 +1871,13 @@
       <c r="D49" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>31</v>
       </c>
@@ -1615,10 +1887,13 @@
       <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -1631,17 +1906,20 @@
       <c r="D51" t="s">
         <v>41</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>0.85401800000000005</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <v>0.62982199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1654,17 +1932,20 @@
       <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52">
         <v>1</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>0.88012900000000005</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <v>0.58581499999999986</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1674,10 +1955,13 @@
       <c r="D53" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>23</v>
       </c>
@@ -1687,10 +1971,13 @@
       <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>33</v>
       </c>
@@ -1700,10 +1987,13 @@
       <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -1716,20 +2006,23 @@
       <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>0.93488899999999997</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>0.58765499999999993</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -1739,10 +2032,13 @@
       <c r="D57" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1755,17 +2051,20 @@
       <c r="D58" t="s">
         <v>40</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1.270888</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <v>0.65243300000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -1778,17 +2077,20 @@
       <c r="D59" t="s">
         <v>41</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1.0052490000000001</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>0.66529700000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -1801,17 +2103,20 @@
       <c r="D60" t="s">
         <v>42</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60">
         <v>1</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>0.87350099999999997</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="6">
         <v>0.54970100000000011</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>26</v>
       </c>
@@ -1821,9 +2126,12 @@
       <c r="D61" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -1833,10 +2141,13 @@
       <c r="D62" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -1849,17 +2160,20 @@
       <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>0.94059999999999999</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>0.52610199999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -1872,17 +2186,20 @@
       <c r="D64" t="s">
         <v>41</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>0.69688099999999997</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>0.55717699999999992</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -1895,17 +2212,20 @@
       <c r="D65" t="s">
         <v>40</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65">
         <v>1</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>0.94518999999999997</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>0.51387099999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>36</v>
       </c>
@@ -1915,10 +2235,13 @@
       <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1931,17 +2254,20 @@
       <c r="D67" t="s">
         <v>42</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67">
         <v>1</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>0.89909399999999995</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>0.71852700000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>37</v>
       </c>
@@ -1951,10 +2277,13 @@
       <c r="D68" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>37</v>
       </c>
@@ -1964,10 +2293,13 @@
       <c r="D69" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -1980,20 +2312,23 @@
       <c r="D70" t="s">
         <v>42</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70">
         <v>1</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>1.0083549999999999</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>0.63609900000000019</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2006,20 +2341,23 @@
       <c r="D71" t="s">
         <v>42</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>0.94114699999999996</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>0.62484399999999996</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>38</v>
       </c>
@@ -2029,10 +2367,13 @@
       <c r="D72" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>38</v>
       </c>
@@ -2042,10 +2383,13 @@
       <c r="D73" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -2058,17 +2402,20 @@
       <c r="D74" t="s">
         <v>42</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>0.80805800000000005</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>0.56192999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>8</v>
       </c>
@@ -2078,10 +2425,13 @@
       <c r="D75" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>8</v>
       </c>
@@ -2091,10 +2441,13 @@
       <c r="D76" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>11</v>
       </c>
@@ -2104,10 +2457,13 @@
       <c r="D77" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2120,17 +2476,20 @@
       <c r="D78" t="s">
         <v>41</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78">
         <v>1</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>0.87845600000000001</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>0.50797600000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>32</v>
       </c>
@@ -2140,10 +2499,13 @@
       <c r="D79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>33</v>
       </c>
@@ -2153,10 +2515,13 @@
       <c r="D80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -2169,17 +2534,20 @@
       <c r="D81" t="s">
         <v>40</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81">
         <v>1</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>0.94150199999999995</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>0.52695600000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -2192,17 +2560,20 @@
       <c r="D82" t="s">
         <v>41</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82">
         <v>1</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="3">
         <v>0.66727899999999996</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>0.55111100000000013</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -2215,17 +2586,20 @@
       <c r="D83" t="s">
         <v>40</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83">
         <v>1</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>0.72</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <v>0.45670900000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>16</v>
       </c>
@@ -2235,10 +2609,13 @@
       <c r="D84" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -2251,17 +2628,20 @@
       <c r="D85" t="s">
         <v>42</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85">
         <v>1</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>0.81095300000000003</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <v>0.68767599999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>18</v>
       </c>
@@ -2271,20 +2651,23 @@
       <c r="D86" t="s">
         <v>40</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86">
         <v>0</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G86" s="3">
         <v>0.625</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>0.19199999999999995</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2297,17 +2680,20 @@
       <c r="D87" t="s">
         <v>41</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87">
         <v>1</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G87" s="3">
         <v>1.2079299999999999</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>0.63012000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2320,20 +2706,23 @@
       <c r="D88" t="s">
         <v>40</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88">
         <v>1</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G88" s="3">
         <v>0.94612600000000002</v>
       </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>0.74433599999999989</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2346,17 +2735,20 @@
       <c r="D89" t="s">
         <v>41</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="s">
+        <v>85</v>
+      </c>
+      <c r="F89">
         <v>1</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>0.85460599999999998</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>0.60066700000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>35</v>
       </c>
@@ -2366,10 +2758,13 @@
       <c r="D90" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -2382,20 +2777,23 @@
       <c r="D91" t="s">
         <v>42</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91">
         <v>1</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1.0938380000000001</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>0.57072999999999996</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2405,13 +2803,16 @@
       <c r="D92" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="E92" t="s">
+        <v>86</v>
+      </c>
       <c r="G92" s="3"/>
-      <c r="H92" t="s">
+      <c r="H92" s="3"/>
+      <c r="I92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -2424,17 +2825,20 @@
       <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93">
         <v>1</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>1.4241969999999999</v>
       </c>
-      <c r="G93" s="3">
+      <c r="H93" s="3">
         <v>0.59236300000000019</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>21</v>
       </c>
@@ -2444,10 +2848,13 @@
       <c r="D94" t="s">
         <v>41</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
       <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -2460,17 +2867,20 @@
       <c r="D95" t="s">
         <v>42</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95">
         <v>1</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G95" s="3">
         <v>0.94193899999999997</v>
       </c>
-      <c r="G95" s="3">
+      <c r="H95" s="3">
         <v>0.63649900000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>22</v>
       </c>
@@ -2480,10 +2890,13 @@
       <c r="D96" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="3"/>
+      <c r="E96" t="s">
+        <v>84</v>
+      </c>
       <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>22</v>
       </c>
@@ -2493,10 +2906,13 @@
       <c r="D97" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="E97" t="s">
+        <v>85</v>
+      </c>
       <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -2510,7 +2926,7 @@
         <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -2518,8 +2934,11 @@
       <c r="G98" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -2532,17 +2951,20 @@
       <c r="D99" t="s">
         <v>40</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
-      <c r="F99" s="3">
+      <c r="G99" s="3">
         <v>1.027955</v>
       </c>
-      <c r="G99" s="3">
+      <c r="H99" s="3">
         <v>0.63952200000000015</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2555,17 +2977,20 @@
       <c r="D100" t="s">
         <v>41</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100">
         <v>1</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>0.62124500000000005</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>0.63436199999999987</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>14</v>
       </c>
@@ -2575,10 +3000,13 @@
       <c r="D101" t="s">
         <v>42</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="E101" t="s">
+        <v>86</v>
+      </c>
       <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>22</v>
       </c>
@@ -2588,10 +3016,13 @@
       <c r="D102" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="E102" t="s">
+        <v>86</v>
+      </c>
       <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -2604,17 +3035,20 @@
       <c r="D103" t="s">
         <v>40</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103">
         <v>1</v>
       </c>
-      <c r="F103" s="3">
+      <c r="G103" s="3">
         <v>0.91766700000000001</v>
       </c>
-      <c r="G103" s="3">
+      <c r="H103" s="3">
         <v>0.41237400000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -2627,17 +3061,20 @@
       <c r="D104" t="s">
         <v>41</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="s">
+        <v>85</v>
+      </c>
+      <c r="F104">
         <v>1</v>
       </c>
-      <c r="F104" s="3">
+      <c r="G104" s="3">
         <v>0.50437900000000002</v>
       </c>
-      <c r="G104" s="3">
+      <c r="H104" s="3">
         <v>0.47079700000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -2650,17 +3087,20 @@
       <c r="D105" t="s">
         <v>40</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105">
         <v>1</v>
       </c>
-      <c r="F105" s="3">
+      <c r="G105" s="3">
         <v>0.90248300000000004</v>
       </c>
-      <c r="G105" s="3">
+      <c r="H105" s="3">
         <v>0.56650299999999987</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>17</v>
       </c>
@@ -2670,10 +3110,13 @@
       <c r="D106" t="s">
         <v>41</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="E106" t="s">
+        <v>87</v>
+      </c>
       <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2686,17 +3129,20 @@
       <c r="D107" t="s">
         <v>42</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107">
         <v>1</v>
       </c>
-      <c r="F107" s="3">
+      <c r="G107" s="3">
         <v>0.872</v>
       </c>
-      <c r="G107" s="3">
+      <c r="H107" s="3">
         <v>0.39144100000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>10</v>
       </c>
@@ -2706,10 +3152,13 @@
       <c r="D108" t="s">
         <v>40</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="E108" t="s">
+        <v>84</v>
+      </c>
       <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2722,17 +3171,20 @@
       <c r="D109" t="s">
         <v>41</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109">
         <v>1</v>
       </c>
-      <c r="F109" s="3">
+      <c r="G109" s="3">
         <v>0.66653899999999999</v>
       </c>
-      <c r="G109" s="3">
+      <c r="H109" s="3">
         <v>0.41013100000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2745,17 +3197,20 @@
       <c r="D110" t="s">
         <v>40</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="s">
+        <v>84</v>
+      </c>
+      <c r="F110">
         <v>1</v>
       </c>
-      <c r="F110" s="3">
+      <c r="G110" s="3">
         <v>0.73534900000000003</v>
       </c>
-      <c r="G110" s="3">
+      <c r="H110" s="3">
         <v>0.50682899999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>6</v>
       </c>
@@ -2765,13 +3220,16 @@
       <c r="D111" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="E111" t="s">
+        <v>87</v>
+      </c>
       <c r="G111" s="3"/>
-      <c r="H111" t="s">
+      <c r="H111" s="3"/>
+      <c r="I111" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -2784,17 +3242,20 @@
       <c r="D112" t="s">
         <v>42</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
+      <c r="G112" s="3">
         <v>0.84995799999999999</v>
       </c>
-      <c r="G112" s="3">
+      <c r="H112" s="3">
         <v>0.46261799999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>20</v>
       </c>
@@ -2804,10 +3265,13 @@
       <c r="D113" t="s">
         <v>40</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="E113" t="s">
+        <v>84</v>
+      </c>
       <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>20</v>
       </c>
@@ -2817,10 +3281,13 @@
       <c r="D114" t="s">
         <v>41</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="E114" t="s">
+        <v>85</v>
+      </c>
       <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -2833,17 +3300,20 @@
       <c r="D115" t="s">
         <v>42</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="s">
+        <v>86</v>
+      </c>
+      <c r="F115">
         <v>1</v>
       </c>
-      <c r="F115" s="3">
+      <c r="G115" s="3">
         <v>0.98574099999999998</v>
       </c>
-      <c r="G115" s="3">
+      <c r="H115" s="3">
         <v>0.59489600000000009</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>15</v>
       </c>
@@ -2853,10 +3323,13 @@
       <c r="D116" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="E116" t="s">
+        <v>84</v>
+      </c>
       <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>15</v>
       </c>
@@ -2866,10 +3339,13 @@
       <c r="D117" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="E117" t="s">
+        <v>85</v>
+      </c>
       <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>8</v>
       </c>
@@ -2879,10 +3355,13 @@
       <c r="D118" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
       <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -2895,17 +3374,20 @@
       <c r="D119" t="s">
         <v>42</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119">
         <v>1</v>
       </c>
-      <c r="F119" s="3">
+      <c r="G119" s="3">
         <v>0.64886900000000003</v>
       </c>
-      <c r="G119" s="3">
+      <c r="H119" s="3">
         <v>0.60303699999999993</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>10</v>
       </c>
@@ -2915,10 +3397,13 @@
       <c r="D120" t="s">
         <v>40</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="E120" t="s">
+        <v>84</v>
+      </c>
       <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2931,20 +3416,23 @@
       <c r="D121" t="s">
         <v>41</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121">
         <v>1</v>
       </c>
-      <c r="F121" s="3">
+      <c r="G121" s="3">
         <v>0.68339499999999997</v>
       </c>
-      <c r="G121" s="3">
+      <c r="H121" s="3">
         <v>0.47065400000000013</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>18</v>
       </c>
@@ -2954,10 +3442,13 @@
       <c r="D122" t="s">
         <v>42</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="E122" t="s">
+        <v>86</v>
+      </c>
       <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>27</v>
       </c>
@@ -2967,10 +3458,13 @@
       <c r="D123" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="3"/>
+      <c r="E123" t="s">
+        <v>84</v>
+      </c>
       <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>27</v>
       </c>
@@ -2980,10 +3474,13 @@
       <c r="D124" t="s">
         <v>41</v>
       </c>
-      <c r="F124" s="3"/>
+      <c r="E124" t="s">
+        <v>85</v>
+      </c>
       <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -2996,14 +3493,17 @@
       <c r="D125" t="s">
         <v>42</v>
       </c>
-      <c r="F125" s="3">
+      <c r="E125" t="s">
+        <v>86</v>
+      </c>
+      <c r="G125" s="3">
         <v>0.68591199999999997</v>
       </c>
-      <c r="G125" s="3">
+      <c r="H125" s="3">
         <v>0.64881899999999992</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>25</v>
       </c>
@@ -3013,10 +3513,13 @@
       <c r="D126" t="s">
         <v>40</v>
       </c>
-      <c r="F126" s="3"/>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
       <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>25</v>
       </c>
@@ -3026,10 +3529,13 @@
       <c r="D127" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="3"/>
+      <c r="E127" t="s">
+        <v>85</v>
+      </c>
       <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>23</v>
       </c>
@@ -3039,10 +3545,13 @@
       <c r="D128" t="s">
         <v>40</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="E128" t="s">
+        <v>84</v>
+      </c>
       <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -3055,14 +3564,17 @@
       <c r="D129" t="s">
         <v>41</v>
       </c>
-      <c r="F129" s="3">
+      <c r="E129" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" s="3">
         <v>0.68388800000000005</v>
       </c>
-      <c r="G129" s="3">
+      <c r="H129" s="3">
         <v>0.56223000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -3075,17 +3587,20 @@
       <c r="D130" t="s">
         <v>42</v>
       </c>
-      <c r="F130" s="3">
+      <c r="E130" t="s">
+        <v>86</v>
+      </c>
+      <c r="G130" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>0.49349200000000004</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -3098,14 +3613,17 @@
       <c r="D131" t="s">
         <v>40</v>
       </c>
-      <c r="F131" s="3">
+      <c r="E131" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" s="3">
         <v>0.64669200000000004</v>
       </c>
-      <c r="G131" s="3">
+      <c r="H131" s="3">
         <v>0.55420999999999987</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>29</v>
       </c>
@@ -3115,10 +3633,13 @@
       <c r="D132" t="s">
         <v>41</v>
       </c>
-      <c r="F132" s="3"/>
+      <c r="E132" t="s">
+        <v>87</v>
+      </c>
       <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>24</v>
       </c>
@@ -3128,10 +3649,13 @@
       <c r="D133" t="s">
         <v>40</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="E133" t="s">
+        <v>84</v>
+      </c>
       <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3144,14 +3668,17 @@
       <c r="D134" t="s">
         <v>41</v>
       </c>
-      <c r="F134" s="3">
+      <c r="E134" t="s">
+        <v>87</v>
+      </c>
+      <c r="G134" s="3">
         <v>0.867039</v>
       </c>
-      <c r="G134" s="3">
+      <c r="H134" s="3">
         <v>0.62175299999999989</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>17</v>
       </c>
@@ -3161,10 +3688,13 @@
       <c r="D135" t="s">
         <v>42</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="E135" t="s">
+        <v>86</v>
+      </c>
       <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>10</v>
       </c>
@@ -3174,10 +3704,13 @@
       <c r="D136" t="s">
         <v>42</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="E136" t="s">
+        <v>86</v>
+      </c>
       <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3190,17 +3723,20 @@
       <c r="D137" t="s">
         <v>40</v>
       </c>
-      <c r="F137" s="3">
+      <c r="E137" t="s">
+        <v>84</v>
+      </c>
+      <c r="G137" s="3">
         <v>1.060395</v>
       </c>
-      <c r="G137" s="3">
+      <c r="H137" s="3">
         <v>0.43819900000000001</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3213,17 +3749,20 @@
       <c r="D138" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="3">
+      <c r="E138" t="s">
+        <v>85</v>
+      </c>
+      <c r="G138" s="3">
         <v>0.48316100000000001</v>
       </c>
-      <c r="G138" s="3">
+      <c r="H138" s="3">
         <v>0.657308</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>6</v>
       </c>
@@ -3233,10 +3772,13 @@
       <c r="D139" t="s">
         <v>42</v>
       </c>
-      <c r="F139" s="3"/>
+      <c r="E139" t="s">
+        <v>86</v>
+      </c>
       <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3249,17 +3791,20 @@
       <c r="D140" t="s">
         <v>40</v>
       </c>
-      <c r="F140" s="3">
+      <c r="E140" t="s">
+        <v>84</v>
+      </c>
+      <c r="G140" s="3">
         <v>0.94867299999999999</v>
       </c>
-      <c r="G140" s="3">
+      <c r="H140" s="3">
         <v>0.47940600000000011</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3272,18 +3817,21 @@
       <c r="D141" t="s">
         <v>41</v>
       </c>
-      <c r="F141" s="3">
+      <c r="E141" t="s">
+        <v>85</v>
+      </c>
+      <c r="G141" s="3">
         <v>0.630247</v>
       </c>
-      <c r="G141" s="3">
+      <c r="H141" s="3">
         <v>0.49071500000000001</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>69</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -3295,20 +3843,23 @@
       <c r="D142" t="s">
         <v>42</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="s">
+        <v>86</v>
+      </c>
+      <c r="F142">
         <v>0</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="G142" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="H142" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>15</v>
       </c>
@@ -3318,10 +3869,13 @@
       <c r="D143" t="s">
         <v>42</v>
       </c>
-      <c r="F143" s="3"/>
+      <c r="E143" t="s">
+        <v>86</v>
+      </c>
       <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3334,14 +3888,17 @@
       <c r="D144" t="s">
         <v>42</v>
       </c>
-      <c r="F144" s="3">
+      <c r="E144" t="s">
+        <v>86</v>
+      </c>
+      <c r="G144" s="3">
         <v>0.72901199999999999</v>
       </c>
-      <c r="G144" s="3">
+      <c r="H144" s="3">
         <v>0.49227200000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -3354,14 +3911,17 @@
       <c r="D145" t="s">
         <v>40</v>
       </c>
-      <c r="F145" s="3">
+      <c r="E145" t="s">
+        <v>84</v>
+      </c>
+      <c r="G145" s="3">
         <v>0.71529500000000001</v>
       </c>
-      <c r="G145" s="3">
+      <c r="H145" s="3">
         <v>0.65534999999999988</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>28</v>
       </c>
@@ -3371,10 +3931,13 @@
       <c r="D146" t="s">
         <v>41</v>
       </c>
-      <c r="F146" s="3"/>
+      <c r="E146" t="s">
+        <v>87</v>
+      </c>
       <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -3387,17 +3950,20 @@
       <c r="D147" t="s">
         <v>42</v>
       </c>
-      <c r="F147" s="3">
+      <c r="E147" t="s">
+        <v>86</v>
+      </c>
+      <c r="G147" s="3">
         <v>0.76573599999999997</v>
       </c>
-      <c r="G147" s="3">
+      <c r="H147" s="3">
         <v>0.65440699999999996</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>36</v>
       </c>
@@ -3407,10 +3973,13 @@
       <c r="D148" t="s">
         <v>40</v>
       </c>
-      <c r="F148" s="3"/>
+      <c r="E148" t="s">
+        <v>84</v>
+      </c>
       <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -3423,17 +3992,20 @@
       <c r="D149" t="s">
         <v>41</v>
       </c>
-      <c r="F149" s="3">
+      <c r="E149" t="s">
+        <v>87</v>
+      </c>
+      <c r="G149" s="3">
         <v>0.85010799999999997</v>
       </c>
-      <c r="G149" s="3">
+      <c r="H149" s="3">
         <v>0.58651799999999998</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -3446,20 +4018,23 @@
       <c r="D150" t="s">
         <v>42</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150">
         <v>0</v>
       </c>
-      <c r="F150" s="3">
+      <c r="G150" s="3">
         <v>0.73570100000000005</v>
       </c>
-      <c r="G150" s="3">
+      <c r="H150" s="3">
         <v>0.82518799999999992</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3472,14 +4047,17 @@
       <c r="D151" t="s">
         <v>40</v>
       </c>
-      <c r="F151" s="3">
+      <c r="E151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151" s="3">
         <v>0.97454200000000002</v>
       </c>
-      <c r="G151" s="3">
+      <c r="H151" s="3">
         <v>0.67084499999999991</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>34</v>
       </c>
@@ -3489,10 +4067,13 @@
       <c r="D152" t="s">
         <v>41</v>
       </c>
-      <c r="F152" s="3"/>
+      <c r="E152" t="s">
+        <v>87</v>
+      </c>
       <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>38</v>
       </c>
@@ -3502,10 +4083,13 @@
       <c r="D153" t="s">
         <v>40</v>
       </c>
-      <c r="F153" s="3"/>
+      <c r="E153" t="s">
+        <v>84</v>
+      </c>
       <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -3518,14 +4102,17 @@
       <c r="D154" t="s">
         <v>41</v>
       </c>
-      <c r="F154" s="3">
+      <c r="E154" t="s">
+        <v>87</v>
+      </c>
+      <c r="G154" s="3">
         <v>0.779501</v>
       </c>
-      <c r="G154" s="3">
+      <c r="H154" s="3">
         <v>0.61332100000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>23</v>
       </c>
@@ -3535,10 +4122,13 @@
       <c r="D155" t="s">
         <v>42</v>
       </c>
-      <c r="F155" s="3"/>
+      <c r="E155" t="s">
+        <v>86</v>
+      </c>
       <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -3551,17 +4141,20 @@
       <c r="D156" t="s">
         <v>40</v>
       </c>
-      <c r="F156" s="3">
+      <c r="E156" t="s">
+        <v>84</v>
+      </c>
+      <c r="G156" s="3">
         <v>2.0677490000000001</v>
       </c>
-      <c r="G156" s="3">
+      <c r="H156" s="3">
         <v>0.5377860000000001</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -3574,14 +4167,17 @@
       <c r="D157" t="s">
         <v>41</v>
       </c>
-      <c r="F157" s="3">
+      <c r="E157" t="s">
+        <v>85</v>
+      </c>
+      <c r="G157" s="3">
         <v>0.872</v>
       </c>
-      <c r="G157" s="3">
+      <c r="H157" s="3">
         <v>0.57208200000000009</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>29</v>
       </c>
@@ -3591,10 +4187,13 @@
       <c r="D158" t="s">
         <v>42</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="E158" t="s">
+        <v>86</v>
+      </c>
       <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>24</v>
       </c>
@@ -3604,10 +4203,13 @@
       <c r="D159" t="s">
         <v>42</v>
       </c>
-      <c r="F159" s="3"/>
+      <c r="E159" t="s">
+        <v>86</v>
+      </c>
       <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -3620,14 +4222,17 @@
       <c r="D160" t="s">
         <v>40</v>
       </c>
-      <c r="F160" s="3">
+      <c r="E160" t="s">
+        <v>84</v>
+      </c>
+      <c r="G160" s="3">
         <v>0.67930400000000002</v>
       </c>
-      <c r="G160" s="3">
+      <c r="H160" s="3">
         <v>0.57758999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -3640,14 +4245,17 @@
       <c r="D161" t="s">
         <v>41</v>
       </c>
-      <c r="F161" s="3">
+      <c r="E161" t="s">
+        <v>85</v>
+      </c>
+      <c r="G161" s="3">
         <v>0.70782100000000003</v>
       </c>
-      <c r="G161" s="3">
+      <c r="H161" s="3">
         <v>0.63211400000000006</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -3660,17 +4268,20 @@
       <c r="D162" t="s">
         <v>40</v>
       </c>
-      <c r="F162" s="3">
+      <c r="E162" t="s">
+        <v>84</v>
+      </c>
+      <c r="G162" s="3">
         <v>0.79294699999999996</v>
       </c>
-      <c r="G162" s="3">
+      <c r="H162" s="3">
         <v>0.710781</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>33</v>
       </c>
@@ -3680,10 +4291,13 @@
       <c r="D163" t="s">
         <v>41</v>
       </c>
-      <c r="F163" s="3"/>
+      <c r="E163" t="s">
+        <v>87</v>
+      </c>
       <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -3696,14 +4310,17 @@
       <c r="D164" t="s">
         <v>42</v>
       </c>
-      <c r="F164" s="3">
+      <c r="E164" t="s">
+        <v>86</v>
+      </c>
+      <c r="G164" s="3">
         <v>0.71257800000000004</v>
       </c>
-      <c r="G164" s="3">
+      <c r="H164" s="3">
         <v>0.57195300000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>35</v>
       </c>
@@ -3713,16 +4330,19 @@
       <c r="D165" t="s">
         <v>40</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="s">
+        <v>84</v>
+      </c>
+      <c r="F165">
         <v>0</v>
       </c>
-      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" t="s">
+      <c r="H165" s="3"/>
+      <c r="I165" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>35</v>
       </c>
@@ -3732,10 +4352,13 @@
       <c r="D166" t="s">
         <v>41</v>
       </c>
-      <c r="F166" s="3"/>
+      <c r="E166" t="s">
+        <v>85</v>
+      </c>
       <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -3748,14 +4371,17 @@
       <c r="D167" t="s">
         <v>42</v>
       </c>
-      <c r="F167" s="3">
+      <c r="E167" t="s">
+        <v>86</v>
+      </c>
+      <c r="G167" s="3">
         <v>0.62975099999999995</v>
       </c>
-      <c r="G167" s="3">
+      <c r="H167" s="3">
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>32</v>
       </c>
@@ -3765,16 +4391,19 @@
       <c r="D168" t="s">
         <v>40</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="s">
+        <v>84</v>
+      </c>
+      <c r="F168">
         <v>0</v>
       </c>
-      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" t="s">
+      <c r="H168" s="3"/>
+      <c r="I168" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>32</v>
       </c>
@@ -3784,10 +4413,13 @@
       <c r="D169" t="s">
         <v>41</v>
       </c>
-      <c r="F169" s="3"/>
+      <c r="E169" t="s">
+        <v>85</v>
+      </c>
       <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>28</v>
       </c>
@@ -3797,10 +4429,13 @@
       <c r="D170" t="s">
         <v>42</v>
       </c>
-      <c r="F170" s="3"/>
+      <c r="E170" t="s">
+        <v>86</v>
+      </c>
       <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -3813,14 +4448,17 @@
       <c r="D171" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="3">
+      <c r="E171" t="s">
+        <v>86</v>
+      </c>
+      <c r="G171" s="3">
         <v>1.0283709999999999</v>
       </c>
-      <c r="G171" s="3">
+      <c r="H171" s="3">
         <v>0.48785100000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>14</v>
       </c>
@@ -3830,10 +4468,13 @@
       <c r="D172" t="s">
         <v>40</v>
       </c>
-      <c r="F172" s="3"/>
+      <c r="E172" t="s">
+        <v>84</v>
+      </c>
       <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>14</v>
       </c>
@@ -3843,10 +4484,13 @@
       <c r="D173" t="s">
         <v>41</v>
       </c>
-      <c r="F173" s="3"/>
+      <c r="E173" t="s">
+        <v>85</v>
+      </c>
       <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>22</v>
       </c>
@@ -3856,10 +4500,13 @@
       <c r="D174" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="3"/>
+      <c r="E174" t="s">
+        <v>84</v>
+      </c>
       <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -3872,14 +4519,17 @@
       <c r="D175" t="s">
         <v>41</v>
       </c>
-      <c r="F175" s="3">
+      <c r="E175" t="s">
+        <v>87</v>
+      </c>
+      <c r="G175" s="3">
         <v>1.0197989999999999</v>
       </c>
-      <c r="G175" s="3">
+      <c r="H175" s="3">
         <v>0.50381100000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>34</v>
       </c>
@@ -3889,10 +4539,13 @@
       <c r="D176" t="s">
         <v>42</v>
       </c>
-      <c r="F176" s="3"/>
+      <c r="E176" t="s">
+        <v>86</v>
+      </c>
       <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -3905,14 +4558,17 @@
       <c r="D177" t="s">
         <v>40</v>
       </c>
-      <c r="F177" s="3">
+      <c r="E177" t="s">
+        <v>84</v>
+      </c>
+      <c r="G177" s="3">
         <v>0.76955499999999999</v>
       </c>
-      <c r="G177" s="3">
+      <c r="H177" s="3">
         <v>0.56962500000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -3925,14 +4581,17 @@
       <c r="D178" t="s">
         <v>41</v>
       </c>
-      <c r="F178" s="3">
+      <c r="E178" t="s">
+        <v>85</v>
+      </c>
+      <c r="G178" s="3">
         <v>0.73300500000000002</v>
       </c>
-      <c r="G178" s="3">
+      <c r="H178" s="3">
         <v>0.56498199999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -3945,14 +4604,17 @@
       <c r="D179" t="s">
         <v>40</v>
       </c>
-      <c r="F179" s="3">
+      <c r="E179" t="s">
+        <v>84</v>
+      </c>
+      <c r="G179" s="3">
         <v>0.790462</v>
       </c>
-      <c r="G179" s="3">
+      <c r="H179" s="3">
         <v>0.6188260000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>11</v>
       </c>
@@ -3962,10 +4624,13 @@
       <c r="D180" t="s">
         <v>41</v>
       </c>
-      <c r="F180" s="3"/>
+      <c r="E180" t="s">
+        <v>87</v>
+      </c>
       <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3978,14 +4643,17 @@
       <c r="D181" t="s">
         <v>42</v>
       </c>
-      <c r="F181" s="3">
+      <c r="E181" t="s">
+        <v>86</v>
+      </c>
+      <c r="G181" s="3">
         <v>1.0301739999999999</v>
       </c>
-      <c r="G181" s="3">
+      <c r="H181" s="3">
         <v>0.61448600000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>37</v>
       </c>
@@ -3995,10 +4663,13 @@
       <c r="D182" t="s">
         <v>42</v>
       </c>
-      <c r="F182" s="3"/>
+      <c r="E182" t="s">
+        <v>86</v>
+      </c>
       <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>76</v>
       </c>
@@ -4011,17 +4682,20 @@
       <c r="D183" t="s">
         <v>42</v>
       </c>
-      <c r="F183" s="3">
+      <c r="E183" t="s">
+        <v>86</v>
+      </c>
+      <c r="G183" s="3">
         <v>0.56427300000000002</v>
       </c>
-      <c r="G183" s="3">
+      <c r="H183" s="3">
         <v>0.60527200000000003</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>21</v>
       </c>
@@ -4031,10 +4705,13 @@
       <c r="D184" t="s">
         <v>40</v>
       </c>
-      <c r="F184" s="3"/>
+      <c r="E184" t="s">
+        <v>84</v>
+      </c>
       <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -4047,14 +4724,17 @@
       <c r="D185" t="s">
         <v>41</v>
       </c>
-      <c r="F185" s="3">
+      <c r="E185" t="s">
+        <v>87</v>
+      </c>
+      <c r="G185" s="3">
         <v>0.668655</v>
       </c>
-      <c r="G185" s="3">
+      <c r="H185" s="3">
         <v>0.57660700000000009</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -4067,14 +4747,17 @@
       <c r="D186" t="s">
         <v>40</v>
       </c>
-      <c r="F186" s="3">
+      <c r="E186" t="s">
+        <v>84</v>
+      </c>
+      <c r="G186" s="3">
         <v>0.66619899999999999</v>
       </c>
-      <c r="G186" s="3">
+      <c r="H186" s="3">
         <v>0.53184300000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4087,14 +4770,17 @@
       <c r="D187" t="s">
         <v>41</v>
       </c>
-      <c r="F187" s="3">
+      <c r="E187" t="s">
+        <v>85</v>
+      </c>
+      <c r="G187" s="3">
         <v>0.51142600000000005</v>
       </c>
-      <c r="G187" s="3">
+      <c r="H187" s="3">
         <v>0.54495700000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>33</v>
       </c>
@@ -4104,10 +4790,13 @@
       <c r="D188" t="s">
         <v>42</v>
       </c>
-      <c r="F188" s="3"/>
+      <c r="E188" t="s">
+        <v>86</v>
+      </c>
       <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -4120,14 +4809,17 @@
       <c r="D189" t="s">
         <v>40</v>
       </c>
-      <c r="F189" s="3">
+      <c r="E189" t="s">
+        <v>84</v>
+      </c>
+      <c r="G189" s="3">
         <v>0.87655300000000003</v>
       </c>
-      <c r="G189" s="3">
+      <c r="H189" s="3">
         <v>0.57922799999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>19</v>
       </c>
@@ -4137,10 +4829,13 @@
       <c r="D190" t="s">
         <v>41</v>
       </c>
-      <c r="F190" s="3"/>
+      <c r="E190" t="s">
+        <v>87</v>
+      </c>
       <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>18</v>
       </c>
@@ -4150,10 +4845,13 @@
       <c r="D191" t="s">
         <v>40</v>
       </c>
-      <c r="F191" s="3"/>
+      <c r="E191" t="s">
+        <v>84</v>
+      </c>
       <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>18</v>
       </c>
@@ -4163,10 +4861,13 @@
       <c r="D192" t="s">
         <v>41</v>
       </c>
-      <c r="F192" s="3"/>
+      <c r="E192" t="s">
+        <v>85</v>
+      </c>
       <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -4179,14 +4880,17 @@
       <c r="D193" t="s">
         <v>42</v>
       </c>
-      <c r="F193" s="3">
+      <c r="E193" t="s">
+        <v>86</v>
+      </c>
+      <c r="G193" s="3">
         <v>0.73300500000000002</v>
       </c>
-      <c r="G193" s="3">
+      <c r="H193" s="3">
         <v>0.55502400000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>32</v>
       </c>
@@ -4196,10 +4900,13 @@
       <c r="D194" t="s">
         <v>42</v>
       </c>
-      <c r="F194" s="3"/>
+      <c r="E194" t="s">
+        <v>86</v>
+      </c>
       <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -4213,7 +4920,7 @@
         <v>44</v>
       </c>
       <c r="E195" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
         <v>49</v>
@@ -4221,8 +4928,11 @@
       <c r="G195" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -4235,14 +4945,17 @@
       <c r="D196" t="s">
         <v>42</v>
       </c>
-      <c r="F196" s="3">
+      <c r="E196" t="s">
+        <v>86</v>
+      </c>
+      <c r="G196" s="3">
         <v>0.84240499999999996</v>
       </c>
-      <c r="G196" s="3">
+      <c r="H196" s="3">
         <v>0.44464400000000015</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -4255,14 +4968,17 @@
       <c r="D197" t="s">
         <v>40</v>
       </c>
-      <c r="F197" s="3">
+      <c r="E197" t="s">
+        <v>84</v>
+      </c>
+      <c r="G197" s="3">
         <v>0.67084299999999997</v>
       </c>
-      <c r="G197" s="3">
+      <c r="H197" s="3">
         <v>0.56610199999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -4275,14 +4991,17 @@
       <c r="D198" t="s">
         <v>41</v>
       </c>
-      <c r="F198" s="3">
+      <c r="E198" t="s">
+        <v>85</v>
+      </c>
+      <c r="G198" s="3">
         <v>0.639463</v>
       </c>
-      <c r="G198" s="3">
+      <c r="H198" s="3">
         <v>0.48321500000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>19</v>
       </c>
@@ -4292,10 +5011,13 @@
       <c r="D199" t="s">
         <v>42</v>
       </c>
-      <c r="F199" s="3"/>
+      <c r="E199" t="s">
+        <v>86</v>
+      </c>
       <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>11</v>
       </c>
@@ -4305,10 +5027,13 @@
       <c r="D200" t="s">
         <v>42</v>
       </c>
-      <c r="F200" s="3"/>
+      <c r="E200" t="s">
+        <v>86</v>
+      </c>
       <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -4321,14 +5046,17 @@
       <c r="D201" t="s">
         <v>40</v>
       </c>
-      <c r="F201" s="3">
+      <c r="E201" t="s">
+        <v>84</v>
+      </c>
+      <c r="G201" s="3">
         <v>1.054138</v>
       </c>
-      <c r="G201" s="3">
+      <c r="H201" s="3">
         <v>0.54448699999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -4341,14 +5069,17 @@
       <c r="D202" t="s">
         <v>41</v>
       </c>
-      <c r="F202" s="3">
+      <c r="E202" t="s">
+        <v>85</v>
+      </c>
+      <c r="G202" s="3">
         <v>0.76026099999999996</v>
       </c>
-      <c r="G202" s="3">
+      <c r="H202" s="3">
         <v>0.64848399999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -4361,14 +5092,17 @@
       <c r="D203" t="s">
         <v>40</v>
       </c>
-      <c r="F203" s="3">
+      <c r="E203" t="s">
+        <v>84</v>
+      </c>
+      <c r="G203" s="3">
         <v>0.72561299999999995</v>
       </c>
-      <c r="G203" s="3">
+      <c r="H203" s="3">
         <v>0.63181000000000009</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>20</v>
       </c>
@@ -4378,10 +5112,13 @@
       <c r="D204" t="s">
         <v>41</v>
       </c>
-      <c r="F204" s="3"/>
+      <c r="E204" t="s">
+        <v>87</v>
+      </c>
       <c r="G204" s="3"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -4394,14 +5131,17 @@
       <c r="D205" t="s">
         <v>42</v>
       </c>
-      <c r="F205" s="3">
+      <c r="E205" t="s">
+        <v>86</v>
+      </c>
+      <c r="G205" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G205" s="3">
+      <c r="H205" s="3">
         <v>0.54351100000000008</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>6</v>
       </c>
@@ -4411,10 +5151,13 @@
       <c r="D206" t="s">
         <v>40</v>
       </c>
-      <c r="F206" s="3"/>
+      <c r="E206" t="s">
+        <v>84</v>
+      </c>
       <c r="G206" s="3"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -4427,14 +5170,17 @@
       <c r="D207" t="s">
         <v>41</v>
       </c>
-      <c r="F207" s="3">
+      <c r="E207" t="s">
+        <v>87</v>
+      </c>
+      <c r="G207" s="3">
         <v>0.92440199999999995</v>
       </c>
-      <c r="G207" s="3">
+      <c r="H207" s="3">
         <v>0.55404500000000012</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -4447,14 +5193,17 @@
       <c r="D208" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="3">
+      <c r="E208" t="s">
+        <v>84</v>
+      </c>
+      <c r="G208" s="3">
         <v>0.76410900000000004</v>
       </c>
-      <c r="G208" s="3">
+      <c r="H208" s="3">
         <v>0.61287100000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>13</v>
       </c>
@@ -4464,10 +5213,13 @@
       <c r="D209" t="s">
         <v>41</v>
       </c>
-      <c r="F209" s="3"/>
+      <c r="E209" t="s">
+        <v>87</v>
+      </c>
       <c r="G209" s="3"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>8</v>
       </c>
@@ -4477,10 +5229,13 @@
       <c r="D210" t="s">
         <v>42</v>
       </c>
-      <c r="F210" s="3"/>
+      <c r="E210" t="s">
+        <v>86</v>
+      </c>
       <c r="G210" s="3"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -4493,14 +5248,17 @@
       <c r="D211" t="s">
         <v>42</v>
       </c>
-      <c r="F211" s="3">
+      <c r="E211" t="s">
+        <v>86</v>
+      </c>
+      <c r="G211" s="3">
         <v>0.69987999999999995</v>
       </c>
-      <c r="G211" s="3">
+      <c r="H211" s="3">
         <v>0.54779100000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>10</v>
       </c>
@@ -4510,11 +5268,13 @@
       <c r="D212" t="s">
         <v>40</v>
       </c>
-      <c r="F212" s="3"/>
+      <c r="E212" t="s">
+        <v>84</v>
+      </c>
       <c r="G212" s="3"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="9"/>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>10</v>
       </c>
@@ -4524,10 +5284,13 @@
       <c r="D213" t="s">
         <v>41</v>
       </c>
-      <c r="F213" s="3"/>
+      <c r="E213" t="s">
+        <v>85</v>
+      </c>
       <c r="G213" s="3"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>14</v>
       </c>
@@ -4537,8 +5300,16 @@
       <c r="D214" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
+        <v>86</v>
+      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>21</v>
+      </c>
       <c r="B215" t="s">
         <v>21</v>
       </c>
@@ -4548,8 +5319,17 @@
       <c r="D215" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E215" t="s">
+        <v>86</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0.59724999999999995</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0.59465299999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>12</v>
       </c>
@@ -4559,8 +5339,13 @@
       <c r="D216" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E216" t="s">
+        <v>84</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>12</v>
       </c>
@@ -4570,8 +5355,13 @@
       <c r="D217" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E217" t="s">
+        <v>85</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>15</v>
       </c>
@@ -4581,8 +5371,16 @@
       <c r="D218" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>84</v>
+      </c>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>15</v>
+      </c>
       <c r="B219" t="s">
         <v>15</v>
       </c>
@@ -4592,8 +5390,17 @@
       <c r="D219" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>87</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0.30649800000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>29</v>
       </c>
@@ -4603,8 +5410,13 @@
       <c r="D220" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E220" t="s">
+        <v>84</v>
+      </c>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>29</v>
       </c>
@@ -4614,8 +5426,16 @@
       <c r="D221" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E221" t="s">
+        <v>85</v>
+      </c>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
@@ -4625,8 +5445,20 @@
       <c r="D222" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E222" t="s">
+        <v>86</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0.83036299999999996</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0.54900799999999994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
       <c r="B223" t="s">
         <v>17</v>
       </c>
@@ -4636,8 +5468,23 @@
       <c r="D223" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E223" t="s">
+        <v>86</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G223" s="3">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I223" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>28</v>
       </c>
@@ -4647,8 +5494,13 @@
       <c r="D224" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E224" t="s">
+        <v>84</v>
+      </c>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>28</v>
       </c>
@@ -4658,8 +5510,13 @@
       <c r="D225" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E225" t="s">
+        <v>85</v>
+      </c>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>26</v>
       </c>
@@ -4669,8 +5526,16 @@
       <c r="D226" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E226" t="s">
+        <v>84</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>26</v>
+      </c>
       <c r="B227" t="s">
         <v>26</v>
       </c>
@@ -4680,8 +5545,17 @@
       <c r="D227" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E227" t="s">
+        <v>87</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0.673655</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0.56912200000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>20</v>
       </c>
@@ -4691,8 +5565,14 @@
       <c r="D228" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E228" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>27</v>
+      </c>
       <c r="B229" t="s">
         <v>27</v>
       </c>
@@ -4702,8 +5582,17 @@
       <c r="D229" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E229" t="s">
+        <v>84</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0.81853200000000004</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0.64250300000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>27</v>
       </c>
@@ -4713,8 +5602,13 @@
       <c r="D230" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
+        <v>87</v>
+      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>30</v>
       </c>
@@ -4724,8 +5618,16 @@
       <c r="D231" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E231" t="s">
+        <v>84</v>
+      </c>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
       <c r="B232" t="s">
         <v>30</v>
       </c>
@@ -4735,8 +5637,20 @@
       <c r="D232" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E232" t="s">
+        <v>87</v>
+      </c>
+      <c r="G232" s="3">
+        <v>0.51138700000000004</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0.65477999999999992</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
@@ -4746,8 +5660,17 @@
       <c r="D233" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E233" t="s">
+        <v>86</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0.95686499999999997</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0.64243600000000012</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>13</v>
       </c>
@@ -4757,8 +5680,16 @@
       <c r="D234" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E234" t="s">
+        <v>86</v>
+      </c>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
       <c r="B235" t="s">
         <v>24</v>
       </c>
@@ -4768,8 +5699,20 @@
       <c r="D235" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E235" t="s">
+        <v>84</v>
+      </c>
+      <c r="G235" s="3">
+        <v>1.207673</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0.62969900000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
       <c r="B236" t="s">
         <v>24</v>
       </c>
@@ -4779,8 +5722,17 @@
       <c r="D236" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E236" t="s">
+        <v>85</v>
+      </c>
+      <c r="G236" s="3">
+        <v>0.72954799999999997</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0.5815800000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>10</v>
       </c>
@@ -4790,8 +5742,16 @@
       <c r="D237" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>86</v>
+      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
       <c r="B238" t="s">
         <v>23</v>
       </c>
@@ -4801,8 +5761,20 @@
       <c r="D238" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E238" t="s">
+        <v>84</v>
+      </c>
+      <c r="G238" s="3">
+        <v>0.91907300000000003</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0.59397499999999992</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>23</v>
+      </c>
       <c r="B239" t="s">
         <v>23</v>
       </c>
@@ -4812,8 +5784,20 @@
       <c r="D239" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E239" t="s">
+        <v>85</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0.53621899999999989</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>25</v>
+      </c>
       <c r="B240" t="s">
         <v>25</v>
       </c>
@@ -4823,8 +5807,17 @@
       <c r="D240" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E240" t="s">
+        <v>84</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0.65128799999999998</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0.49995899999999993</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>25</v>
       </c>
@@ -4834,8 +5827,13 @@
       <c r="D241" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E241" t="s">
+        <v>87</v>
+      </c>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>12</v>
       </c>
@@ -4845,8 +5843,16 @@
       <c r="D242" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E242" t="s">
+        <v>86</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
       <c r="B243" t="s">
         <v>15</v>
       </c>
@@ -4856,8 +5862,20 @@
       <c r="D243" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E243" t="s">
+        <v>86</v>
+      </c>
+      <c r="G243" s="3">
+        <v>0.70689900000000006</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0.41035699999999997</v>
+      </c>
+      <c r="I243" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>34</v>
       </c>
@@ -4867,8 +5885,16 @@
       <c r="D244" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E244" t="s">
+        <v>84</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>34</v>
+      </c>
       <c r="B245" t="s">
         <v>34</v>
       </c>
@@ -4878,8 +5904,20 @@
       <c r="D245" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E245" t="s">
+        <v>87</v>
+      </c>
+      <c r="G245" s="3">
+        <v>0.56697600000000004</v>
+      </c>
+      <c r="H245" s="3">
+        <v>0.61756899999999992</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>29</v>
+      </c>
       <c r="B246" t="s">
         <v>29</v>
       </c>
@@ -4889,8 +5927,20 @@
       <c r="D246" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E246" t="s">
+        <v>86</v>
+      </c>
+      <c r="G246" s="3">
+        <v>0.94350500000000004</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0.55949199999999988</v>
+      </c>
+      <c r="I246" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>28</v>
       </c>
@@ -4900,8 +5950,16 @@
       <c r="D247" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E247" t="s">
+        <v>86</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>37</v>
+      </c>
       <c r="B248" t="s">
         <v>37</v>
       </c>
@@ -4911,8 +5969,17 @@
       <c r="D248" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E248" t="s">
+        <v>84</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0.54945200000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>37</v>
       </c>
@@ -4922,8 +5989,16 @@
       <c r="D249" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E249" t="s">
+        <v>87</v>
+      </c>
+      <c r="F249" t="s">
+        <v>56</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>32</v>
       </c>
@@ -4933,8 +6008,16 @@
       <c r="D250" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E250" t="s">
+        <v>84</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>32</v>
+      </c>
       <c r="B251" t="s">
         <v>32</v>
       </c>
@@ -4944,8 +6027,17 @@
       <c r="D251" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E251" t="s">
+        <v>87</v>
+      </c>
+      <c r="G251" s="3">
+        <v>1.2635909999999999</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0.40509499999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>26</v>
       </c>
@@ -4955,8 +6047,16 @@
       <c r="D252" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E252" t="s">
+        <v>86</v>
+      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>36</v>
+      </c>
       <c r="B253" t="s">
         <v>36</v>
       </c>
@@ -4966,8 +6066,20 @@
       <c r="D253" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E253" t="s">
+        <v>84</v>
+      </c>
+      <c r="G253" s="3">
+        <v>0.665574</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0.51792999999999989</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>36</v>
+      </c>
       <c r="B254" t="s">
         <v>36</v>
       </c>
@@ -4977,8 +6089,17 @@
       <c r="D254" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>85</v>
+      </c>
+      <c r="G254" s="3">
+        <v>0.60012399999999999</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0.40457500000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>27</v>
       </c>
@@ -4988,8 +6109,16 @@
       <c r="D255" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>86</v>
+      </c>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
       <c r="B256" t="s">
         <v>30</v>
       </c>
@@ -4999,8 +6128,17 @@
       <c r="D256" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>86</v>
+      </c>
+      <c r="G256" s="3">
+        <v>0.79294699999999996</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0.55669500000000005</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>24</v>
       </c>
@@ -5010,8 +6148,16 @@
       <c r="D257" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>86</v>
+      </c>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>38</v>
+      </c>
       <c r="B258" t="s">
         <v>38</v>
       </c>
@@ -5021,8 +6167,20 @@
       <c r="D258" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>84</v>
+      </c>
+      <c r="G258" s="3">
+        <v>0.99571100000000001</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0.62909199999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>38</v>
+      </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
@@ -5032,8 +6190,20 @@
       <c r="D259" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>85</v>
+      </c>
+      <c r="G259" s="3">
+        <v>0.61341800000000002</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0.64458799999999994</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>35</v>
+      </c>
       <c r="B260" t="s">
         <v>35</v>
       </c>
@@ -5043,8 +6213,17 @@
       <c r="D260" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E260" t="s">
+        <v>84</v>
+      </c>
+      <c r="G260" s="3">
+        <v>0.57393400000000006</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0.61574499999999988</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>35</v>
       </c>
@@ -5054,8 +6233,13 @@
       <c r="D261" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>87</v>
+      </c>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>33</v>
       </c>
@@ -5065,8 +6249,13 @@
       <c r="D262" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>84</v>
+      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>33</v>
       </c>
@@ -5076,8 +6265,16 @@
       <c r="D263" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E263" t="s">
+        <v>85</v>
+      </c>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>25</v>
+      </c>
       <c r="B264" t="s">
         <v>25</v>
       </c>
@@ -5087,8 +6284,17 @@
       <c r="D264" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
+        <v>86</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0.63226899999999997</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0.45582800000000012</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>31</v>
       </c>
@@ -5098,8 +6304,13 @@
       <c r="D265" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
+        <v>84</v>
+      </c>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>31</v>
       </c>
@@ -5109,8 +6320,16 @@
       <c r="D266" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E266" t="s">
+        <v>85</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>23</v>
+      </c>
       <c r="B267" t="s">
         <v>23</v>
       </c>
@@ -5120,8 +6339,17 @@
       <c r="D267" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E267" t="s">
+        <v>86</v>
+      </c>
+      <c r="G267" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0.486514</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>16</v>
       </c>
@@ -5131,8 +6359,13 @@
       <c r="D268" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E268" t="s">
+        <v>84</v>
+      </c>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>16</v>
       </c>
@@ -5142,8 +6375,16 @@
       <c r="D269" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E269" t="s">
+        <v>85</v>
+      </c>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>82</v>
+      </c>
       <c r="B270" t="s">
         <v>34</v>
       </c>
@@ -5153,8 +6394,20 @@
       <c r="D270" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E270" t="s">
+        <v>86</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0.83251500000000001</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1.1109059999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>19</v>
       </c>
@@ -5164,8 +6417,16 @@
       <c r="D271" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E271" t="s">
+        <v>84</v>
+      </c>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>19</v>
+      </c>
       <c r="B272" t="s">
         <v>19</v>
       </c>
@@ -5175,8 +6436,23 @@
       <c r="D272" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>87</v>
+      </c>
+      <c r="G272" s="3">
+        <v>0.81484299999999998</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0.57860700000000009</v>
+      </c>
+      <c r="I272" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
       <c r="B273" t="s">
         <v>11</v>
       </c>
@@ -5186,8 +6462,23 @@
       <c r="D273" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E273" t="s">
+        <v>84</v>
+      </c>
+      <c r="F273" t="s">
+        <v>56</v>
+      </c>
+      <c r="G273" s="3">
+        <v>0.68869199999999997</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0.58300600000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
       <c r="B274" t="s">
         <v>11</v>
       </c>
@@ -5197,8 +6488,17 @@
       <c r="D274" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E274" t="s">
+        <v>85</v>
+      </c>
+      <c r="G274" s="3">
+        <v>0.495701</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0.52929400000000015</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>37</v>
       </c>
@@ -5208,8 +6508,16 @@
       <c r="D275" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E275" t="s">
+        <v>86</v>
+      </c>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
       <c r="B276" t="s">
         <v>32</v>
       </c>
@@ -5219,8 +6527,20 @@
       <c r="D276" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E276" t="s">
+        <v>86</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0.69375900000000001</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0.62255499999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
       <c r="B277" t="s">
         <v>18</v>
       </c>
@@ -5230,8 +6550,17 @@
       <c r="D277" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E277" t="s">
+        <v>84</v>
+      </c>
+      <c r="G277" s="3">
+        <v>1.094814</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0.69507200000000013</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>18</v>
       </c>
@@ -5241,8 +6570,13 @@
       <c r="D278" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>87</v>
+      </c>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>8</v>
       </c>
@@ -5252,8 +6586,16 @@
       <c r="D279" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>84</v>
+      </c>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>8</v>
+      </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
@@ -5263,8 +6605,17 @@
       <c r="D280" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E280" t="s">
+        <v>87</v>
+      </c>
+      <c r="G280" s="3">
+        <v>0.61913300000000004</v>
+      </c>
+      <c r="H280" s="3">
+        <v>0.40494200000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>36</v>
       </c>
@@ -5274,8 +6625,16 @@
       <c r="D281" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E281" t="s">
+        <v>86</v>
+      </c>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>22</v>
+      </c>
       <c r="B282" t="s">
         <v>22</v>
       </c>
@@ -5285,8 +6644,20 @@
       <c r="D282" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>84</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0.81185099999999999</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0.40516500000000011</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>22</v>
+      </c>
       <c r="B283" t="s">
         <v>22</v>
       </c>
@@ -5296,8 +6667,17 @@
       <c r="D283" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E283" t="s">
+        <v>85</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0.83551600000000004</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0.43942099999999995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>38</v>
       </c>
@@ -5307,8 +6687,16 @@
       <c r="D284" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E284" t="s">
+        <v>86</v>
+      </c>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
       <c r="B285" t="s">
         <v>14</v>
       </c>
@@ -5318,8 +6706,17 @@
       <c r="D285" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
+        <v>84</v>
+      </c>
+      <c r="G285" s="3">
+        <v>0.93021600000000004</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0.46403199999999989</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>14</v>
       </c>
@@ -5329,8 +6726,13 @@
       <c r="D286" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
+        <v>87</v>
+      </c>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>21</v>
       </c>
@@ -5340,8 +6742,13 @@
       <c r="D287" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E287" t="s">
+        <v>84</v>
+      </c>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>21</v>
       </c>
@@ -5351,8 +6758,16 @@
       <c r="D288" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>85</v>
+      </c>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>35</v>
+      </c>
       <c r="B289" t="s">
         <v>35</v>
       </c>
@@ -5362,8 +6777,17 @@
       <c r="D289" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
+        <v>86</v>
+      </c>
+      <c r="G289" s="3">
+        <v>0.73613399999999996</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0.61751500000000015</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>33</v>
       </c>
@@ -5373,8 +6797,16 @@
       <c r="D290" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>86</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>31</v>
+      </c>
       <c r="B291" t="s">
         <v>31</v>
       </c>
@@ -5384,8 +6816,20 @@
       <c r="D291" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E291" t="s">
+        <v>86</v>
+      </c>
+      <c r="G291" s="3">
+        <v>0.68416399999999999</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0.62680099999999994</v>
+      </c>
+      <c r="I291" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>49</v>
       </c>
@@ -5399,16 +6843,16 @@
         <v>44</v>
       </c>
       <c r="E292" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F292" t="s">
         <v>49</v>
       </c>
-      <c r="G292" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
       <c r="B293" t="s">
         <v>19</v>
       </c>
@@ -5418,8 +6862,23 @@
       <c r="D293" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>86</v>
+      </c>
+      <c r="G293" s="3">
+        <v>0.67172799999999999</v>
+      </c>
+      <c r="H293" s="3">
+        <v>0.58998399999999995</v>
+      </c>
+      <c r="I293" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>15</v>
+      </c>
       <c r="B294" t="s">
         <v>15</v>
       </c>
@@ -5429,8 +6888,23 @@
       <c r="D294" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>84</v>
+      </c>
+      <c r="G294" s="3">
+        <v>0.69495399999999996</v>
+      </c>
+      <c r="H294" s="3">
+        <v>0.39328200000000002</v>
+      </c>
+      <c r="I294" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
       <c r="B295" t="s">
         <v>15</v>
       </c>
@@ -5440,8 +6914,17 @@
       <c r="D295" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E295" t="s">
+        <v>85</v>
+      </c>
+      <c r="G295" s="3">
+        <v>0.69472599999999995</v>
+      </c>
+      <c r="H295" s="3">
+        <v>0.39785599999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>14</v>
       </c>
@@ -5451,8 +6934,16 @@
       <c r="D296" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>86</v>
+      </c>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
       <c r="B297" t="s">
         <v>18</v>
       </c>
@@ -5462,8 +6953,20 @@
       <c r="D297" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>86</v>
+      </c>
+      <c r="G297" s="3">
+        <v>0.73452600000000001</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0.68063300000000004</v>
+      </c>
+      <c r="I297" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>8</v>
       </c>
@@ -5473,8 +6976,16 @@
       <c r="D298" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E298" t="s">
+        <v>86</v>
+      </c>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>20</v>
+      </c>
       <c r="B299" t="s">
         <v>20</v>
       </c>
@@ -5484,8 +6995,23 @@
       <c r="D299" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E299" t="s">
+        <v>84</v>
+      </c>
+      <c r="G299" s="3">
+        <v>0.98987099999999995</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0.67379600000000006</v>
+      </c>
+      <c r="I299" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
       <c r="B300" t="s">
         <v>20</v>
       </c>
@@ -5495,8 +7021,23 @@
       <c r="D300" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>85</v>
+      </c>
+      <c r="G300" s="3">
+        <v>0.48533100000000001</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0.71520600000000001</v>
+      </c>
+      <c r="I300" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
       <c r="B301" t="s">
         <v>10</v>
       </c>
@@ -5506,8 +7047,20 @@
       <c r="D301" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E301" t="s">
+        <v>84</v>
+      </c>
+      <c r="G301" s="3">
+        <v>0.90687600000000002</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0.50787500000000008</v>
+      </c>
+      <c r="I301" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>10</v>
       </c>
@@ -5517,8 +7070,13 @@
       <c r="D302" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E302" t="s">
+        <v>87</v>
+      </c>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>16</v>
       </c>
@@ -5528,8 +7086,13 @@
       <c r="D303" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E303" t="s">
+        <v>86</v>
+      </c>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>12</v>
       </c>
@@ -5539,8 +7102,16 @@
       <c r="D304" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E304" t="s">
+        <v>84</v>
+      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="B305" t="s">
         <v>12</v>
       </c>
@@ -5550,8 +7121,23 @@
       <c r="D305" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E305" t="s">
+        <v>87</v>
+      </c>
+      <c r="G305" s="3">
+        <v>0.64188000000000001</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0.59446599999999994</v>
+      </c>
+      <c r="I305" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
       <c r="B306" t="s">
         <v>10</v>
       </c>
@@ -5561,8 +7147,20 @@
       <c r="D306" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>84</v>
+      </c>
+      <c r="G306" s="3">
+        <v>0.53920500000000005</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0.61391600000000002</v>
+      </c>
+      <c r="I306" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>10</v>
       </c>
@@ -5572,8 +7170,16 @@
       <c r="D307" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>87</v>
+      </c>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>21</v>
+      </c>
       <c r="B308" t="s">
         <v>21</v>
       </c>
@@ -5583,8 +7189,20 @@
       <c r="D308" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>86</v>
+      </c>
+      <c r="G308" s="3">
+        <v>0.86171500000000001</v>
+      </c>
+      <c r="H308" s="3">
+        <v>0.6731069999999999</v>
+      </c>
+      <c r="I308" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>13</v>
       </c>
@@ -5594,8 +7212,13 @@
       <c r="D309" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E309" t="s">
+        <v>84</v>
+      </c>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>13</v>
       </c>
@@ -5605,8 +7228,13 @@
       <c r="D310" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E310" t="s">
+        <v>85</v>
+      </c>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>22</v>
       </c>
@@ -5616,8 +7244,16 @@
       <c r="D311" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E311" t="s">
+        <v>86</v>
+      </c>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>11</v>
+      </c>
       <c r="B312" t="s">
         <v>11</v>
       </c>
@@ -5627,8 +7263,20 @@
       <c r="D312" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E312" t="s">
+        <v>86</v>
+      </c>
+      <c r="G312" s="3">
+        <v>0.79609300000000005</v>
+      </c>
+      <c r="H312" s="3">
+        <v>0.56213100000000005</v>
+      </c>
+      <c r="I312" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>6</v>
       </c>
@@ -5638,8 +7286,13 @@
       <c r="D313" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E313" t="s">
+        <v>84</v>
+      </c>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>6</v>
       </c>
@@ -5649,8 +7302,13 @@
       <c r="D314" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E314" t="s">
+        <v>85</v>
+      </c>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>17</v>
       </c>
@@ -5660,8 +7318,16 @@
       <c r="D315" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E315" t="s">
+        <v>84</v>
+      </c>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>17</v>
+      </c>
       <c r="B316" t="s">
         <v>17</v>
       </c>
@@ -5671,8 +7337,20 @@
       <c r="D316" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E316" t="s">
+        <v>87</v>
+      </c>
+      <c r="G316" s="3">
+        <v>0.92722400000000005</v>
+      </c>
+      <c r="H316" s="3">
+        <v>0.67847199999999996</v>
+      </c>
+      <c r="I316" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>30</v>
       </c>
@@ -5682,8 +7360,13 @@
       <c r="D317" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E317" t="s">
+        <v>84</v>
+      </c>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>30</v>
       </c>
@@ -5693,8 +7376,16 @@
       <c r="D318" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E318" t="s">
+        <v>85</v>
+      </c>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>15</v>
+      </c>
       <c r="B319" t="s">
         <v>15</v>
       </c>
@@ -5704,8 +7395,20 @@
       <c r="D319" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E319" t="s">
+        <v>86</v>
+      </c>
+      <c r="G319" s="3">
+        <v>0.68284699999999998</v>
+      </c>
+      <c r="H319" s="3">
+        <v>0.47042500000000009</v>
+      </c>
+      <c r="I319" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>26</v>
       </c>
@@ -5715,8 +7418,13 @@
       <c r="D320" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E320" t="s">
+        <v>84</v>
+      </c>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>26</v>
       </c>
@@ -5726,8 +7434,16 @@
       <c r="D321" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E321" t="s">
+        <v>85</v>
+      </c>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>20</v>
+      </c>
       <c r="B322" t="s">
         <v>20</v>
       </c>
@@ -5737,8 +7453,20 @@
       <c r="D322" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E322" t="s">
+        <v>86</v>
+      </c>
+      <c r="G322" s="3">
+        <v>0.63891100000000001</v>
+      </c>
+      <c r="H322" s="3">
+        <v>0.66937000000000002</v>
+      </c>
+      <c r="I322" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>28</v>
       </c>
@@ -5748,8 +7476,16 @@
       <c r="D323" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E323" t="s">
+        <v>84</v>
+      </c>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>28</v>
+      </c>
       <c r="B324" t="s">
         <v>28</v>
       </c>
@@ -5759,8 +7495,23 @@
       <c r="D324" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E324" t="s">
+        <v>87</v>
+      </c>
+      <c r="G324" s="3">
+        <v>0.82200499999999999</v>
+      </c>
+      <c r="H324" s="3">
+        <v>0.74345500000000009</v>
+      </c>
+      <c r="I324" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>24</v>
+      </c>
       <c r="B325" t="s">
         <v>24</v>
       </c>
@@ -5770,8 +7521,17 @@
       <c r="D325" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E325" t="s">
+        <v>84</v>
+      </c>
+      <c r="G325" s="3">
+        <v>0.94211100000000003</v>
+      </c>
+      <c r="H325" s="3">
+        <v>0.55507300000000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>24</v>
       </c>
@@ -5781,8 +7541,13 @@
       <c r="D326" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E326" t="s">
+        <v>87</v>
+      </c>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>10</v>
       </c>
@@ -5792,8 +7557,16 @@
       <c r="D327" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E327" t="s">
+        <v>86</v>
+      </c>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>12</v>
+      </c>
       <c r="B328" t="s">
         <v>12</v>
       </c>
@@ -5803,8 +7576,20 @@
       <c r="D328" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E328" t="s">
+        <v>86</v>
+      </c>
+      <c r="G328" s="3">
+        <v>0.65471199999999996</v>
+      </c>
+      <c r="H328" s="3">
+        <v>0.46705400000000008</v>
+      </c>
+      <c r="I328" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>10</v>
       </c>
@@ -5814,8 +7599,13 @@
       <c r="D329" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E329" t="s">
+        <v>86</v>
+      </c>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>29</v>
       </c>
@@ -5825,8 +7615,16 @@
       <c r="D330" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E330" t="s">
+        <v>84</v>
+      </c>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>29</v>
+      </c>
       <c r="B331" t="s">
         <v>29</v>
       </c>
@@ -5836,8 +7634,20 @@
       <c r="D331" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E331" t="s">
+        <v>87</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0.63902899999999996</v>
+      </c>
+      <c r="H331" s="3">
+        <v>0.66795100000000007</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -5847,8 +7657,20 @@
       <c r="D332" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E332" t="s">
+        <v>84</v>
+      </c>
+      <c r="G332" s="3">
+        <v>0.711229</v>
+      </c>
+      <c r="H332" s="3">
+        <v>0.64998199999999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>25</v>
+      </c>
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -5858,8 +7680,17 @@
       <c r="D333" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E333" t="s">
+        <v>85</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0.60705799999999999</v>
+      </c>
+      <c r="H333" s="3">
+        <v>0.74370400000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>13</v>
       </c>
@@ -5869,8 +7700,14 @@
       <c r="D334" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E334" t="s">
+        <v>86</v>
+      </c>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A335" s="9"/>
       <c r="B335" t="s">
         <v>27</v>
       </c>
@@ -5880,8 +7717,14 @@
       <c r="D335" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E335" t="s">
+        <v>84</v>
+      </c>
+      <c r="I335" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>27</v>
       </c>
@@ -5891,8 +7734,14 @@
       <c r="D336" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>85</v>
+      </c>
+      <c r="I336" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>6</v>
       </c>
@@ -5902,8 +7751,11 @@
       <c r="D337" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>17</v>
       </c>
@@ -5913,8 +7765,14 @@
       <c r="D338" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>86</v>
+      </c>
+      <c r="I338" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -5924,8 +7782,11 @@
       <c r="D339" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E339" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -5935,8 +7796,11 @@
       <c r="D340" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E340" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>35</v>
       </c>
@@ -5946,8 +7810,11 @@
       <c r="D341" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E341" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>35</v>
       </c>
@@ -5957,8 +7824,14 @@
       <c r="D342" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E342" t="s">
+        <v>87</v>
+      </c>
+      <c r="I342" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>31</v>
       </c>
@@ -5968,8 +7841,17 @@
       <c r="D343" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E343" t="s">
+        <v>84</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I343" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>31</v>
       </c>
@@ -5979,8 +7861,11 @@
       <c r="D344" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E344" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>30</v>
       </c>
@@ -5990,8 +7875,11 @@
       <c r="D345" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E345" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>26</v>
       </c>
@@ -6001,8 +7889,11 @@
       <c r="D346" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>37</v>
       </c>
@@ -6012,8 +7903,11 @@
       <c r="D347" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E347" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>37</v>
       </c>
@@ -6023,8 +7917,11 @@
       <c r="D348" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E348" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>28</v>
       </c>
@@ -6034,8 +7931,17 @@
       <c r="D349" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E349" t="s">
+        <v>86</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="I349" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>33</v>
       </c>
@@ -6045,8 +7951,11 @@
       <c r="D350" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E350" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>33</v>
       </c>
@@ -6056,8 +7965,11 @@
       <c r="D351" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E351" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>24</v>
       </c>
@@ -6067,8 +7979,11 @@
       <c r="D352" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E352" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="353" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>29</v>
       </c>
@@ -6078,8 +7993,17 @@
       <c r="D353" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E353" t="s">
+        <v>86</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I353" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="354" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>32</v>
       </c>
@@ -6089,8 +8013,14 @@
       <c r="D354" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E354" t="s">
+        <v>84</v>
+      </c>
+      <c r="I354" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="355" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>32</v>
       </c>
@@ -6100,8 +8030,11 @@
       <c r="D355" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E355" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="356" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>38</v>
       </c>
@@ -6111,8 +8044,14 @@
       <c r="D356" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E356" t="s">
+        <v>84</v>
+      </c>
+      <c r="I356" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="357" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>38</v>
       </c>
@@ -6122,8 +8061,11 @@
       <c r="D357" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E357" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="358" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>25</v>
       </c>
@@ -6133,8 +8075,11 @@
       <c r="D358" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E358" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>27</v>
       </c>
@@ -6144,8 +8089,11 @@
       <c r="D359" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E359" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>36</v>
       </c>
@@ -6155,8 +8103,17 @@
       <c r="D360" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E360" t="s">
+        <v>84</v>
+      </c>
+      <c r="F360" s="11">
+        <v>1</v>
+      </c>
+      <c r="I360" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>36</v>
       </c>
@@ -6166,8 +8123,11 @@
       <c r="D361" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E361" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>23</v>
       </c>
@@ -6177,8 +8137,11 @@
       <c r="D362" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E362" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>34</v>
       </c>
@@ -6188,8 +8151,11 @@
       <c r="D363" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E363" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>34</v>
       </c>
@@ -6199,8 +8165,11 @@
       <c r="D364" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E364" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>35</v>
       </c>
@@ -6210,8 +8179,11 @@
       <c r="D365" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E365" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>31</v>
       </c>
@@ -6221,8 +8193,11 @@
       <c r="D366" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E366" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>19</v>
       </c>
@@ -6232,8 +8207,11 @@
       <c r="D367" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E367" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>19</v>
       </c>
@@ -6243,8 +8221,11 @@
       <c r="D368" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E368" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>14</v>
       </c>
@@ -6254,8 +8235,11 @@
       <c r="D369" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E369" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>14</v>
       </c>
@@ -6265,8 +8249,11 @@
       <c r="D370" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E370" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>37</v>
       </c>
@@ -6276,8 +8263,11 @@
       <c r="D371" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E371" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>18</v>
       </c>
@@ -6287,8 +8277,11 @@
       <c r="D372" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E372" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>18</v>
       </c>
@@ -6298,8 +8291,11 @@
       <c r="D373" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E373" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>8</v>
       </c>
@@ -6309,8 +8305,11 @@
       <c r="D374" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E374" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>8</v>
       </c>
@@ -6320,8 +8319,11 @@
       <c r="D375" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E375" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>33</v>
       </c>
@@ -6331,8 +8333,11 @@
       <c r="D376" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E376" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>16</v>
       </c>
@@ -6342,8 +8347,11 @@
       <c r="D377" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E377" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>16</v>
       </c>
@@ -6353,8 +8361,11 @@
       <c r="D378" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E378" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>21</v>
       </c>
@@ -6364,8 +8375,11 @@
       <c r="D379" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E379" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>21</v>
       </c>
@@ -6375,8 +8389,11 @@
       <c r="D380" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E380" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>32</v>
       </c>
@@ -6386,8 +8403,11 @@
       <c r="D381" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E381" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>38</v>
       </c>
@@ -6397,8 +8417,11 @@
       <c r="D382" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E382" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>22</v>
       </c>
@@ -6408,8 +8431,11 @@
       <c r="D383" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E383" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>22</v>
       </c>
@@ -6419,8 +8445,11 @@
       <c r="D384" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E384" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>11</v>
       </c>
@@ -6430,8 +8459,11 @@
       <c r="D385" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E385" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>11</v>
       </c>
@@ -6441,8 +8473,11 @@
       <c r="D386" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E386" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>36</v>
       </c>
@@ -6452,8 +8487,11 @@
       <c r="D387" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E387" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>34</v>
       </c>
@@ -6463,9 +8501,12 @@
       <c r="D388" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E394" t="s">
+      <c r="E388" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F394" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Analysis/pilot00/pilot00_coded.xlsx
+++ b/Analysis/pilot00/pilot00_coded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE5715-961B-47C1-9699-42210756088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C3A47-5EC9-447F-8158-2E50B34D4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11088" yWindow="672" windowWidth="11388" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="118">
   <si>
     <t>Response</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t xml:space="preserve">breath as if to speak but didn't </t>
+  </si>
+  <si>
+    <t>guantoe</t>
+  </si>
+  <si>
+    <t>too close to the mic (24_778)</t>
+  </si>
+  <si>
+    <t>initially spoke, then started typing</t>
+  </si>
+  <si>
+    <t>1(?)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +438,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,9 +478,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="H362" sqref="H362"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="F345" sqref="F345:F387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3496,6 +3504,9 @@
       <c r="E125" t="s">
         <v>86</v>
       </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
       <c r="G125" s="3">
         <v>0.68591199999999997</v>
       </c>
@@ -3567,6 +3578,9 @@
       <c r="E129" t="s">
         <v>87</v>
       </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
       <c r="G129" s="3">
         <v>0.68388800000000005</v>
       </c>
@@ -3590,6 +3604,9 @@
       <c r="E130" t="s">
         <v>86</v>
       </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
       <c r="G130" s="3">
         <v>0.56000000000000005</v>
       </c>
@@ -3616,6 +3633,9 @@
       <c r="E131" t="s">
         <v>84</v>
       </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
       <c r="G131" s="3">
         <v>0.64669200000000004</v>
       </c>
@@ -3671,6 +3691,9 @@
       <c r="E134" t="s">
         <v>87</v>
       </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
       <c r="G134" s="3">
         <v>0.867039</v>
       </c>
@@ -3726,6 +3749,9 @@
       <c r="E137" t="s">
         <v>84</v>
       </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
       <c r="G137" s="3">
         <v>1.060395</v>
       </c>
@@ -3752,6 +3778,9 @@
       <c r="E138" t="s">
         <v>85</v>
       </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
       <c r="G138" s="3">
         <v>0.48316100000000001</v>
       </c>
@@ -3794,6 +3823,9 @@
       <c r="E140" t="s">
         <v>84</v>
       </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
       <c r="G140" s="3">
         <v>0.94867299999999999</v>
       </c>
@@ -3820,6 +3852,9 @@
       <c r="E141" t="s">
         <v>85</v>
       </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
       <c r="G141" s="3">
         <v>0.630247</v>
       </c>
@@ -3891,6 +3926,9 @@
       <c r="E144" t="s">
         <v>86</v>
       </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
       <c r="G144" s="3">
         <v>0.72901199999999999</v>
       </c>
@@ -3914,6 +3952,9 @@
       <c r="E145" t="s">
         <v>84</v>
       </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
       <c r="G145" s="3">
         <v>0.71529500000000001</v>
       </c>
@@ -3953,6 +3994,9 @@
       <c r="E147" t="s">
         <v>86</v>
       </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
       <c r="G147" s="3">
         <v>0.76573599999999997</v>
       </c>
@@ -3995,6 +4039,9 @@
       <c r="E149" t="s">
         <v>87</v>
       </c>
+      <c r="F149" s="11">
+        <v>1</v>
+      </c>
       <c r="G149" s="3">
         <v>0.85010799999999997</v>
       </c>
@@ -4050,6 +4097,9 @@
       <c r="E151" t="s">
         <v>84</v>
       </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
       <c r="G151" s="3">
         <v>0.97454200000000002</v>
       </c>
@@ -4105,6 +4155,9 @@
       <c r="E154" t="s">
         <v>87</v>
       </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
       <c r="G154" s="3">
         <v>0.779501</v>
       </c>
@@ -4144,6 +4197,9 @@
       <c r="E156" t="s">
         <v>84</v>
       </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
       <c r="G156" s="3">
         <v>2.0677490000000001</v>
       </c>
@@ -4170,6 +4226,9 @@
       <c r="E157" t="s">
         <v>85</v>
       </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
       <c r="G157" s="3">
         <v>0.872</v>
       </c>
@@ -4225,6 +4284,9 @@
       <c r="E160" t="s">
         <v>84</v>
       </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
       <c r="G160" s="3">
         <v>0.67930400000000002</v>
       </c>
@@ -4248,6 +4310,9 @@
       <c r="E161" t="s">
         <v>85</v>
       </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
       <c r="G161" s="3">
         <v>0.70782100000000003</v>
       </c>
@@ -4271,6 +4336,9 @@
       <c r="E162" t="s">
         <v>84</v>
       </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
       <c r="G162" s="3">
         <v>0.79294699999999996</v>
       </c>
@@ -4312,6 +4380,9 @@
       </c>
       <c r="E164" t="s">
         <v>86</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
       </c>
       <c r="G164" s="3">
         <v>0.71257800000000004</v>
@@ -4374,6 +4445,9 @@
       <c r="E167" t="s">
         <v>86</v>
       </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
       <c r="G167" s="3">
         <v>0.62975099999999995</v>
       </c>
@@ -4451,6 +4525,9 @@
       <c r="E171" t="s">
         <v>86</v>
       </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
       <c r="G171" s="3">
         <v>1.0283709999999999</v>
       </c>
@@ -4522,6 +4599,9 @@
       <c r="E175" t="s">
         <v>87</v>
       </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
       <c r="G175" s="3">
         <v>1.0197989999999999</v>
       </c>
@@ -4561,6 +4641,9 @@
       <c r="E177" t="s">
         <v>84</v>
       </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
       <c r="G177" s="3">
         <v>0.76955499999999999</v>
       </c>
@@ -4584,6 +4667,9 @@
       <c r="E178" t="s">
         <v>85</v>
       </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
       <c r="G178" s="3">
         <v>0.73300500000000002</v>
       </c>
@@ -4607,6 +4693,9 @@
       <c r="E179" t="s">
         <v>84</v>
       </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
       <c r="G179" s="3">
         <v>0.790462</v>
       </c>
@@ -4646,6 +4735,9 @@
       <c r="E181" t="s">
         <v>86</v>
       </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
       <c r="G181" s="3">
         <v>1.0301739999999999</v>
       </c>
@@ -4685,6 +4777,9 @@
       <c r="E183" t="s">
         <v>86</v>
       </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
       <c r="G183" s="3">
         <v>0.56427300000000002</v>
       </c>
@@ -4727,6 +4822,9 @@
       <c r="E185" t="s">
         <v>87</v>
       </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
       <c r="G185" s="3">
         <v>0.668655</v>
       </c>
@@ -4750,6 +4848,9 @@
       <c r="E186" t="s">
         <v>84</v>
       </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
       <c r="G186" s="3">
         <v>0.66619899999999999</v>
       </c>
@@ -4773,6 +4874,9 @@
       <c r="E187" t="s">
         <v>85</v>
       </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
       <c r="G187" s="3">
         <v>0.51142600000000005</v>
       </c>
@@ -4812,6 +4916,9 @@
       <c r="E189" t="s">
         <v>84</v>
       </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
       <c r="G189" s="3">
         <v>0.87655300000000003</v>
       </c>
@@ -4883,6 +4990,9 @@
       <c r="E193" t="s">
         <v>86</v>
       </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
       <c r="G193" s="3">
         <v>0.73300500000000002</v>
       </c>
@@ -4948,6 +5058,9 @@
       <c r="E196" t="s">
         <v>86</v>
       </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
       <c r="G196" s="3">
         <v>0.84240499999999996</v>
       </c>
@@ -4971,6 +5084,9 @@
       <c r="E197" t="s">
         <v>84</v>
       </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
       <c r="G197" s="3">
         <v>0.67084299999999997</v>
       </c>
@@ -4994,6 +5110,9 @@
       <c r="E198" t="s">
         <v>85</v>
       </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
       <c r="G198" s="3">
         <v>0.639463</v>
       </c>
@@ -5049,6 +5168,9 @@
       <c r="E201" t="s">
         <v>84</v>
       </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
       <c r="G201" s="3">
         <v>1.054138</v>
       </c>
@@ -5072,6 +5194,9 @@
       <c r="E202" t="s">
         <v>85</v>
       </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
       <c r="G202" s="3">
         <v>0.76026099999999996</v>
       </c>
@@ -5095,6 +5220,9 @@
       <c r="E203" t="s">
         <v>84</v>
       </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
       <c r="G203" s="3">
         <v>0.72561299999999995</v>
       </c>
@@ -5134,6 +5262,9 @@
       <c r="E205" t="s">
         <v>86</v>
       </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
       <c r="G205" s="3">
         <v>0.74399999999999999</v>
       </c>
@@ -5173,6 +5304,9 @@
       <c r="E207" t="s">
         <v>87</v>
       </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
       <c r="G207" s="3">
         <v>0.92440199999999995</v>
       </c>
@@ -5196,6 +5330,9 @@
       <c r="E208" t="s">
         <v>84</v>
       </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
       <c r="G208" s="3">
         <v>0.76410900000000004</v>
       </c>
@@ -5251,6 +5388,9 @@
       <c r="E211" t="s">
         <v>86</v>
       </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
       <c r="G211" s="3">
         <v>0.69987999999999995</v>
       </c>
@@ -5322,6 +5462,9 @@
       <c r="E215" t="s">
         <v>86</v>
       </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
       <c r="G215" s="3">
         <v>0.59724999999999995</v>
       </c>
@@ -5393,6 +5536,9 @@
       <c r="E219" t="s">
         <v>87</v>
       </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
       <c r="G219" s="3">
         <v>0.753</v>
       </c>
@@ -5448,6 +5594,9 @@
       <c r="E222" t="s">
         <v>86</v>
       </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
       <c r="G222" s="3">
         <v>0.83036299999999996</v>
       </c>
@@ -5548,6 +5697,9 @@
       <c r="E227" t="s">
         <v>87</v>
       </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
       <c r="G227" s="3">
         <v>0.673655</v>
       </c>
@@ -5585,6 +5737,9 @@
       <c r="E229" t="s">
         <v>84</v>
       </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
       <c r="G229" s="3">
         <v>0.81853200000000004</v>
       </c>
@@ -5640,6 +5795,9 @@
       <c r="E232" t="s">
         <v>87</v>
       </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
       <c r="G232" s="3">
         <v>0.51138700000000004</v>
       </c>
@@ -5663,6 +5821,9 @@
       <c r="E233" t="s">
         <v>86</v>
       </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
       <c r="G233" s="3">
         <v>0.95686499999999997</v>
       </c>
@@ -5702,6 +5863,9 @@
       <c r="E235" t="s">
         <v>84</v>
       </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
       <c r="G235" s="3">
         <v>1.207673</v>
       </c>
@@ -5725,6 +5889,9 @@
       <c r="E236" t="s">
         <v>85</v>
       </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
       <c r="G236" s="3">
         <v>0.72954799999999997</v>
       </c>
@@ -5764,6 +5931,9 @@
       <c r="E238" t="s">
         <v>84</v>
       </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
       <c r="G238" s="3">
         <v>0.91907300000000003</v>
       </c>
@@ -5787,6 +5957,9 @@
       <c r="E239" t="s">
         <v>85</v>
       </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
       <c r="G239" s="3">
         <v>0.63200000000000001</v>
       </c>
@@ -5810,6 +5983,9 @@
       <c r="E240" t="s">
         <v>84</v>
       </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
       <c r="G240" s="3">
         <v>0.65128799999999998</v>
       </c>
@@ -5865,6 +6041,9 @@
       <c r="E243" t="s">
         <v>86</v>
       </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
       <c r="G243" s="3">
         <v>0.70689900000000006</v>
       </c>
@@ -5907,6 +6086,9 @@
       <c r="E245" t="s">
         <v>87</v>
       </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
       <c r="G245" s="3">
         <v>0.56697600000000004</v>
       </c>
@@ -5930,6 +6112,9 @@
       <c r="E246" t="s">
         <v>86</v>
       </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
       <c r="G246" s="3">
         <v>0.94350500000000004</v>
       </c>
@@ -5972,6 +6157,9 @@
       <c r="E248" t="s">
         <v>84</v>
       </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
       <c r="G248" s="3">
         <v>0.81699999999999995</v>
       </c>
@@ -6030,6 +6218,9 @@
       <c r="E251" t="s">
         <v>87</v>
       </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
       <c r="G251" s="3">
         <v>1.2635909999999999</v>
       </c>
@@ -6069,6 +6260,9 @@
       <c r="E253" t="s">
         <v>84</v>
       </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
       <c r="G253" s="3">
         <v>0.665574</v>
       </c>
@@ -6092,6 +6286,9 @@
       <c r="E254" t="s">
         <v>85</v>
       </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
       <c r="G254" s="3">
         <v>0.60012399999999999</v>
       </c>
@@ -6131,6 +6328,9 @@
       <c r="E256" t="s">
         <v>86</v>
       </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
       <c r="G256" s="3">
         <v>0.79294699999999996</v>
       </c>
@@ -6170,6 +6370,9 @@
       <c r="E258" t="s">
         <v>84</v>
       </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
       <c r="G258" s="3">
         <v>0.99571100000000001</v>
       </c>
@@ -6193,6 +6396,9 @@
       <c r="E259" t="s">
         <v>85</v>
       </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
       <c r="G259" s="3">
         <v>0.61341800000000002</v>
       </c>
@@ -6216,6 +6422,9 @@
       <c r="E260" t="s">
         <v>84</v>
       </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
       <c r="G260" s="3">
         <v>0.57393400000000006</v>
       </c>
@@ -6287,6 +6496,9 @@
       <c r="E264" t="s">
         <v>86</v>
       </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
       <c r="G264" s="3">
         <v>0.63226899999999997</v>
       </c>
@@ -6342,6 +6554,9 @@
       <c r="E267" t="s">
         <v>86</v>
       </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
       <c r="G267" s="3">
         <v>0.63200000000000001</v>
       </c>
@@ -6398,7 +6613,7 @@
         <v>86</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G270" s="3">
         <v>0.83251500000000001</v>
@@ -6439,6 +6654,9 @@
       <c r="E272" t="s">
         <v>87</v>
       </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
       <c r="G272" s="3">
         <v>0.81484299999999998</v>
       </c>
@@ -6465,8 +6683,8 @@
       <c r="E273" t="s">
         <v>84</v>
       </c>
-      <c r="F273" t="s">
-        <v>56</v>
+      <c r="F273">
+        <v>1</v>
       </c>
       <c r="G273" s="3">
         <v>0.68869199999999997</v>
@@ -6491,6 +6709,9 @@
       <c r="E274" t="s">
         <v>85</v>
       </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
       <c r="G274" s="3">
         <v>0.495701</v>
       </c>
@@ -6530,6 +6751,9 @@
       <c r="E276" t="s">
         <v>86</v>
       </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
       <c r="G276" s="3">
         <v>0.69375900000000001</v>
       </c>
@@ -6553,6 +6777,9 @@
       <c r="E277" t="s">
         <v>84</v>
       </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
       <c r="G277" s="3">
         <v>1.094814</v>
       </c>
@@ -6608,6 +6835,9 @@
       <c r="E280" t="s">
         <v>87</v>
       </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
       <c r="G280" s="3">
         <v>0.61913300000000004</v>
       </c>
@@ -6647,6 +6877,9 @@
       <c r="E282" t="s">
         <v>84</v>
       </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
       <c r="G282" s="3">
         <v>0.81185099999999999</v>
       </c>
@@ -6670,6 +6903,9 @@
       <c r="E283" t="s">
         <v>85</v>
       </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
       <c r="G283" s="3">
         <v>0.83551600000000004</v>
       </c>
@@ -6709,6 +6945,9 @@
       <c r="E285" t="s">
         <v>84</v>
       </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
       <c r="G285" s="3">
         <v>0.93021600000000004</v>
       </c>
@@ -6780,6 +7019,9 @@
       <c r="E289" t="s">
         <v>86</v>
       </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
       <c r="G289" s="3">
         <v>0.73613399999999996</v>
       </c>
@@ -6819,6 +7061,9 @@
       <c r="E291" t="s">
         <v>86</v>
       </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
       <c r="G291" s="3">
         <v>0.68416399999999999</v>
       </c>
@@ -6865,6 +7110,9 @@
       <c r="E293" t="s">
         <v>86</v>
       </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
       <c r="G293" s="3">
         <v>0.67172799999999999</v>
       </c>
@@ -6891,6 +7139,9 @@
       <c r="E294" t="s">
         <v>84</v>
       </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
       <c r="G294" s="3">
         <v>0.69495399999999996</v>
       </c>
@@ -6917,6 +7168,9 @@
       <c r="E295" t="s">
         <v>85</v>
       </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
       <c r="G295" s="3">
         <v>0.69472599999999995</v>
       </c>
@@ -6956,6 +7210,9 @@
       <c r="E297" t="s">
         <v>86</v>
       </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
       <c r="G297" s="3">
         <v>0.73452600000000001</v>
       </c>
@@ -6998,6 +7255,9 @@
       <c r="E299" t="s">
         <v>84</v>
       </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
       <c r="G299" s="3">
         <v>0.98987099999999995</v>
       </c>
@@ -7024,6 +7284,9 @@
       <c r="E300" t="s">
         <v>85</v>
       </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
       <c r="G300" s="3">
         <v>0.48533100000000001</v>
       </c>
@@ -7050,6 +7313,9 @@
       <c r="E301" t="s">
         <v>84</v>
       </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
       <c r="G301" s="3">
         <v>0.90687600000000002</v>
       </c>
@@ -7109,7 +7375,7 @@
       <c r="H304" s="3"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="10" t="s">
+      <c r="A305" t="s">
         <v>12</v>
       </c>
       <c r="B305" t="s">
@@ -7123,6 +7389,9 @@
       </c>
       <c r="E305" t="s">
         <v>87</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
       </c>
       <c r="G305" s="3">
         <v>0.64188000000000001</v>
@@ -7150,6 +7419,9 @@
       <c r="E306" t="s">
         <v>84</v>
       </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
       <c r="G306" s="3">
         <v>0.53920500000000005</v>
       </c>
@@ -7192,6 +7464,9 @@
       <c r="E308" t="s">
         <v>86</v>
       </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
       <c r="G308" s="3">
         <v>0.86171500000000001</v>
       </c>
@@ -7266,6 +7541,9 @@
       <c r="E312" t="s">
         <v>86</v>
       </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
       <c r="G312" s="3">
         <v>0.79609300000000005</v>
       </c>
@@ -7340,6 +7618,9 @@
       <c r="E316" t="s">
         <v>87</v>
       </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
       <c r="G316" s="3">
         <v>0.92722400000000005</v>
       </c>
@@ -7398,6 +7679,9 @@
       <c r="E319" t="s">
         <v>86</v>
       </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
       <c r="G319" s="3">
         <v>0.68284699999999998</v>
       </c>
@@ -7456,6 +7740,9 @@
       <c r="E322" t="s">
         <v>86</v>
       </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
       <c r="G322" s="3">
         <v>0.63891100000000001</v>
       </c>
@@ -7498,6 +7785,9 @@
       <c r="E324" t="s">
         <v>87</v>
       </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
       <c r="G324" s="3">
         <v>0.82200499999999999</v>
       </c>
@@ -7524,6 +7814,9 @@
       <c r="E325" t="s">
         <v>84</v>
       </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
       <c r="G325" s="3">
         <v>0.94211100000000003</v>
       </c>
@@ -7579,6 +7872,9 @@
       <c r="E328" t="s">
         <v>86</v>
       </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
       <c r="G328" s="3">
         <v>0.65471199999999996</v>
       </c>
@@ -7637,6 +7933,9 @@
       <c r="E331" t="s">
         <v>87</v>
       </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
       <c r="G331" s="3">
         <v>0.63902899999999996</v>
       </c>
@@ -7660,6 +7959,9 @@
       <c r="E332" t="s">
         <v>84</v>
       </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
       <c r="G332" s="3">
         <v>0.711229</v>
       </c>
@@ -7683,6 +7985,9 @@
       <c r="E333" t="s">
         <v>85</v>
       </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
       <c r="G333" s="3">
         <v>0.60705799999999999</v>
       </c>
@@ -7707,7 +8012,9 @@
       <c r="H334" s="3"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="9"/>
+      <c r="A335" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B335" t="s">
         <v>27</v>
       </c>
@@ -7720,11 +8027,23 @@
       <c r="E335" t="s">
         <v>84</v>
       </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335" s="3">
+        <v>0.99290299999999998</v>
+      </c>
+      <c r="H335" s="3">
+        <v>0.63577600000000001</v>
+      </c>
       <c r="I335" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>27</v>
+      </c>
       <c r="B336" t="s">
         <v>27</v>
       </c>
@@ -7737,11 +8056,20 @@
       <c r="E336" t="s">
         <v>85</v>
       </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336" s="3">
+        <v>1.257871</v>
+      </c>
+      <c r="H336" s="3">
+        <v>0.64838799999999996</v>
+      </c>
       <c r="I336" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>6</v>
       </c>
@@ -7754,8 +8082,13 @@
       <c r="E337" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>17</v>
+      </c>
       <c r="B338" t="s">
         <v>17</v>
       </c>
@@ -7768,11 +8101,23 @@
       <c r="E338" t="s">
         <v>86</v>
       </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338" s="3">
+        <v>0.91581800000000002</v>
+      </c>
+      <c r="H338" s="3">
+        <v>0.65382699999999994</v>
+      </c>
       <c r="I338" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>23</v>
+      </c>
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -7785,8 +8130,17 @@
       <c r="E339" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <v>0.78766899999999995</v>
+      </c>
+      <c r="H339" s="3">
+        <v>0.60143900000000006</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -7799,8 +8153,10 @@
       <c r="E340" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>35</v>
       </c>
@@ -7813,8 +8169,13 @@
       <c r="E341" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>35</v>
+      </c>
       <c r="B342" t="s">
         <v>35</v>
       </c>
@@ -7827,11 +8188,23 @@
       <c r="E342" t="s">
         <v>87</v>
       </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342" s="3">
+        <v>0.79330900000000004</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0.55781999999999998</v>
+      </c>
       <c r="I342" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>114</v>
+      </c>
       <c r="B343" t="s">
         <v>31</v>
       </c>
@@ -7847,11 +8220,17 @@
       <c r="F343" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="G343" s="3">
+        <v>0.67396699999999998</v>
+      </c>
+      <c r="H343" s="3">
+        <v>0.57416200000000006</v>
+      </c>
       <c r="I343" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>31</v>
       </c>
@@ -7864,8 +8243,13 @@
       <c r="E344" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>30</v>
+      </c>
       <c r="B345" t="s">
         <v>30</v>
       </c>
@@ -7878,8 +8262,17 @@
       <c r="E345" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345" s="3">
+        <v>0.58552899999999997</v>
+      </c>
+      <c r="H345" s="3">
+        <v>0.56604300000000007</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>26</v>
       </c>
@@ -7892,8 +8285,10 @@
       <c r="E346" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>37</v>
       </c>
@@ -7906,8 +8301,13 @@
       <c r="E347" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>37</v>
+      </c>
       <c r="B348" t="s">
         <v>37</v>
       </c>
@@ -7920,8 +8320,17 @@
       <c r="E348" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <v>1.2493650000000001</v>
+      </c>
+      <c r="H348" s="3">
+        <v>0.62713299999999994</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>28</v>
       </c>
@@ -7937,11 +8346,16 @@
       <c r="F349">
         <v>0</v>
       </c>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
       <c r="I349" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>33</v>
+      </c>
       <c r="B350" t="s">
         <v>33</v>
       </c>
@@ -7954,8 +8368,20 @@
       <c r="E350" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350" s="3">
+        <v>1.015906</v>
+      </c>
+      <c r="H350" s="3">
+        <v>0.62507599999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>33</v>
+      </c>
       <c r="B351" t="s">
         <v>33</v>
       </c>
@@ -7968,8 +8394,17 @@
       <c r="E351" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351" s="3">
+        <v>0.59412299999999996</v>
+      </c>
+      <c r="H351" s="3">
+        <v>0.63476100000000013</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>24</v>
       </c>
@@ -7982,8 +8417,10 @@
       <c r="E352" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>29</v>
       </c>
@@ -7999,11 +8436,16 @@
       <c r="F353" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
       <c r="I353" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>32</v>
+      </c>
       <c r="B354" t="s">
         <v>32</v>
       </c>
@@ -8016,11 +8458,23 @@
       <c r="E354" t="s">
         <v>84</v>
       </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354" s="3">
+        <v>1.1768289999999999</v>
+      </c>
+      <c r="H354" s="3">
+        <v>0.70126200000000005</v>
+      </c>
       <c r="I354" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>32</v>
+      </c>
       <c r="B355" t="s">
         <v>32</v>
       </c>
@@ -8033,8 +8487,20 @@
       <c r="E355" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355" s="3">
+        <v>0.72844100000000001</v>
+      </c>
+      <c r="H355" s="3">
+        <v>0.63604000000000005</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>38</v>
+      </c>
       <c r="B356" t="s">
         <v>38</v>
       </c>
@@ -8047,11 +8513,20 @@
       <c r="E356" t="s">
         <v>84</v>
       </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3">
+        <v>0.66329199999999999</v>
+      </c>
+      <c r="H356" s="3">
+        <v>0.67296500000000004</v>
+      </c>
       <c r="I356" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>38</v>
       </c>
@@ -8064,8 +8539,13 @@
       <c r="E357" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>25</v>
+      </c>
       <c r="B358" t="s">
         <v>25</v>
       </c>
@@ -8078,8 +8558,20 @@
       <c r="E358" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358" s="3">
+        <v>0.74322600000000005</v>
+      </c>
+      <c r="H358" s="3">
+        <v>0.51921699999999993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>27</v>
+      </c>
       <c r="B359" t="s">
         <v>27</v>
       </c>
@@ -8092,8 +8584,17 @@
       <c r="E359" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359" s="3">
+        <v>0.61860800000000005</v>
+      </c>
+      <c r="H359" s="3">
+        <v>0.6263939999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>36</v>
       </c>
@@ -8106,14 +8607,16 @@
       <c r="E360" t="s">
         <v>84</v>
       </c>
-      <c r="F360" s="11">
-        <v>1</v>
-      </c>
+      <c r="F360" s="9">
+        <v>1</v>
+      </c>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
       <c r="I360" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>36</v>
       </c>
@@ -8126,8 +8629,13 @@
       <c r="E361" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B362" t="s">
         <v>23</v>
       </c>
@@ -8140,8 +8648,17 @@
       <c r="E362" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H362" s="3">
+        <v>0.55850899999999992</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>34</v>
       </c>
@@ -8154,8 +8671,10 @@
       <c r="E363" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>34</v>
       </c>
@@ -8168,8 +8687,13 @@
       <c r="E364" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="B365" t="s">
         <v>35</v>
       </c>
@@ -8182,8 +8706,23 @@
       <c r="E365" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <v>0.76108900000000002</v>
+      </c>
+      <c r="H365" s="3">
+        <v>0.57625699999999991</v>
+      </c>
+      <c r="I365" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>31</v>
+      </c>
       <c r="B366" t="s">
         <v>31</v>
       </c>
@@ -8196,8 +8735,17 @@
       <c r="E366" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366" s="3">
+        <v>0.66177900000000001</v>
+      </c>
+      <c r="H366" s="3">
+        <v>0.63177500000000009</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>19</v>
       </c>
@@ -8210,8 +8758,16 @@
       <c r="E367" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>19</v>
       </c>
@@ -8224,8 +8780,10 @@
       <c r="E368" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>14</v>
       </c>
@@ -8238,8 +8796,13 @@
       <c r="E369" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>14</v>
+      </c>
       <c r="B370" t="s">
         <v>14</v>
       </c>
@@ -8252,8 +8815,17 @@
       <c r="E370" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370" s="3">
+        <v>0.87224000000000002</v>
+      </c>
+      <c r="H370" s="3">
+        <v>0.59231</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>37</v>
       </c>
@@ -8266,8 +8838,13 @@
       <c r="E371" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>18</v>
+      </c>
       <c r="B372" t="s">
         <v>18</v>
       </c>
@@ -8280,8 +8857,20 @@
       <c r="E372" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372" s="3">
+        <v>0.79924600000000001</v>
+      </c>
+      <c r="H372" s="3">
+        <v>0.66759299999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>18</v>
+      </c>
       <c r="B373" t="s">
         <v>18</v>
       </c>
@@ -8294,8 +8883,20 @@
       <c r="E373" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373" s="3">
+        <v>0.61464700000000005</v>
+      </c>
+      <c r="H373" s="3">
+        <v>0.68276499999999996</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>8</v>
+      </c>
       <c r="B374" t="s">
         <v>8</v>
       </c>
@@ -8308,8 +8909,17 @@
       <c r="E374" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374" s="3">
+        <v>0.82081199999999999</v>
+      </c>
+      <c r="H374" s="3">
+        <v>0.63641800000000004</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>8</v>
       </c>
@@ -8322,8 +8932,13 @@
       <c r="E375" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>33</v>
+      </c>
       <c r="B376" t="s">
         <v>33</v>
       </c>
@@ -8336,8 +8951,17 @@
       <c r="E376" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376" s="3">
+        <v>0.853877</v>
+      </c>
+      <c r="H376" s="3">
+        <v>0.63053200000000009</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>16</v>
       </c>
@@ -8350,8 +8974,13 @@
       <c r="E377" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G377" s="3"/>
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>16</v>
+      </c>
       <c r="B378" t="s">
         <v>16</v>
       </c>
@@ -8364,8 +8993,20 @@
       <c r="E378" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378" s="3">
+        <v>0.99826300000000001</v>
+      </c>
+      <c r="H378" s="3">
+        <v>0.52047699999999997</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>21</v>
+      </c>
       <c r="B379" t="s">
         <v>21</v>
       </c>
@@ -8378,8 +9019,20 @@
       <c r="E379" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379" s="3">
+        <v>0.604325</v>
+      </c>
+      <c r="H379" s="3">
+        <v>0.67928000000000011</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>21</v>
+      </c>
       <c r="B380" t="s">
         <v>21</v>
       </c>
@@ -8392,8 +9045,17 @@
       <c r="E380" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380" s="3">
+        <v>0.82221</v>
+      </c>
+      <c r="H380" s="3">
+        <v>0.65789200000000003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>32</v>
       </c>
@@ -8406,8 +9068,10 @@
       <c r="E381" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>38</v>
       </c>
@@ -8420,8 +9084,13 @@
       <c r="E382" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G382" s="3"/>
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>22</v>
+      </c>
       <c r="B383" t="s">
         <v>22</v>
       </c>
@@ -8434,8 +9103,17 @@
       <c r="E383" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>1.061275</v>
+      </c>
+      <c r="H383" s="3">
+        <v>0.64019899999999996</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>22</v>
       </c>
@@ -8448,8 +9126,10 @@
       <c r="E384" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G384" s="3"/>
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>11</v>
       </c>
@@ -8462,8 +9142,10 @@
       <c r="E385" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>11</v>
       </c>
@@ -8476,8 +9158,13 @@
       <c r="E386" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>36</v>
+      </c>
       <c r="B387" t="s">
         <v>36</v>
       </c>
@@ -8490,8 +9177,17 @@
       <c r="E387" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387" s="3">
+        <v>0.58787400000000001</v>
+      </c>
+      <c r="H387" s="3">
+        <v>0.47790099999999991</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>34</v>
       </c>
@@ -8504,8 +9200,10 @@
       <c r="E388" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F394" t="s">
         <v>56</v>
       </c>

--- a/Analysis/pilot00/pilot00_coded.xlsx
+++ b/Analysis/pilot00/pilot00_coded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C3A47-5EC9-447F-8158-2E50B34D4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEA79D-161D-40CF-9BF1-528BCCAF7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11436" yWindow="948" windowWidth="11388" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="146">
   <si>
     <t>Response</t>
   </si>
@@ -173,9 +173,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>mu?eca</t>
-  </si>
-  <si>
     <t>esplada</t>
   </si>
   <si>
@@ -390,6 +387,93 @@
   </si>
   <si>
     <t>1(?)</t>
+  </si>
+  <si>
+    <t>baΓ±o</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>ccz</t>
+  </si>
+  <si>
+    <t>caz</t>
+  </si>
+  <si>
+    <t>spal</t>
+  </si>
+  <si>
+    <t>pinto</t>
+  </si>
+  <si>
+    <t>muΓ±eca</t>
+  </si>
+  <si>
+    <t>espald</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>coneko</t>
+  </si>
+  <si>
+    <t>pulp</t>
+  </si>
+  <si>
+    <t>caxador</t>
+  </si>
+  <si>
+    <t>elpalda</t>
+  </si>
+  <si>
+    <t>gran</t>
+  </si>
+  <si>
+    <t>punte</t>
+  </si>
+  <si>
+    <t>esplad</t>
+  </si>
+  <si>
+    <t>ireja</t>
+  </si>
+  <si>
+    <t>guyna</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>peirna</t>
+  </si>
+  <si>
+    <t>puent</t>
+  </si>
+  <si>
+    <t>cazad</t>
+  </si>
+  <si>
+    <t>manza</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>manz</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>muñe</t>
+  </si>
+  <si>
+    <t>careter</t>
+  </si>
+  <si>
+    <t>corrected with backspace</t>
   </si>
 </sst>
 </file>
@@ -464,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -479,8 +563,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -502,7 +585,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}" name="Table1" displayName="Table1" ref="A1:I388" totalsRowShown="0">
-  <autoFilter ref="A1:I388" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}"/>
+  <autoFilter ref="A1:I388" xr:uid="{D5BDEAA8-2940-4509-A3AB-F6A6995CBA58}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="type"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{354DB6E8-09FC-4F97-84E7-38E95E278CFB}" name="Response"/>
     <tableColumn id="2" xr3:uid="{5D9C097B-01CD-43F0-8E83-38B9CC990E60}" name="Image"/>
@@ -815,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:L394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345:F387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F390" sqref="F390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +933,7 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -856,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -873,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -885,7 +974,7 @@
         <v>0.58559300000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -899,7 +988,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -913,7 +1002,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -925,12 +1014,15 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -944,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -956,7 +1048,7 @@
         <v>0.60099100000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -970,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -984,7 +1076,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -996,12 +1088,15 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1110,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1029,7 +1124,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1041,14 +1136,17 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1060,12 +1158,15 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1180,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1091,7 +1192,7 @@
         <v>0.7884500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1117,7 +1218,7 @@
         <v>0.60167799999999971</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1232,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1145,7 +1246,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1157,12 +1258,15 @@
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1280,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1189,6 +1293,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1199,12 +1306,18 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1215,12 +1328,15 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1246,7 +1362,10 @@
         <v>0.59995799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1257,12 +1376,18 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1273,12 +1398,15 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1420,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1304,7 +1432,10 @@
         <v>0.65222699999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1315,14 +1446,20 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1334,7 +1471,7 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1346,7 +1483,10 @@
         <v>0.68484300000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1357,12 +1497,18 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1373,12 +1519,15 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1541,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1404,7 +1553,10 @@
         <v>0.62200600000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1415,12 +1567,18 @@
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1431,12 +1589,15 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1462,7 +1623,10 @@
         <v>0.69009199999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1473,12 +1637,18 @@
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -1489,12 +1659,18 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -1505,12 +1681,15 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1536,7 +1715,7 @@
         <v>0.43207499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +1729,7 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1563,6 +1742,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -1573,12 +1755,15 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1777,7 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1605,6 +1790,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -1615,12 +1803,15 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1634,7 +1825,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1647,6 +1838,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -1657,12 +1851,18 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -1673,12 +1873,15 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1692,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1704,7 +1907,7 @@
         <v>0.62238199999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1921,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1731,6 +1934,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
@@ -1741,12 +1947,15 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1772,7 +1981,7 @@
         <v>0.62085000000000012</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1995,7 @@
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1798,7 +2007,7 @@
         <v>0.60247099999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +2021,7 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1824,10 +2033,13 @@
         <v>0.568774</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
@@ -1838,12 +2050,15 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1870,6 +2085,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -1880,12 +2098,18 @@
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
@@ -1896,12 +2120,15 @@
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +2142,7 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1927,7 +2154,7 @@
         <v>0.62982199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1941,7 +2168,7 @@
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1954,6 +2181,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1964,12 +2194,18 @@
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
@@ -1980,12 +2216,18 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
       <c r="B55" t="s">
         <v>33</v>
       </c>
@@ -1996,12 +2238,15 @@
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2027,10 +2272,13 @@
         <v>0.58765499999999993</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -2041,12 +2289,15 @@
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2060,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2072,7 +2323,7 @@
         <v>0.65243300000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2086,7 +2337,7 @@
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2098,7 +2349,7 @@
         <v>0.66529700000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -2112,7 +2363,7 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2125,6 +2376,9 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
@@ -2135,11 +2389,17 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -2150,12 +2410,15 @@
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2432,7 @@
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2181,7 +2444,7 @@
         <v>0.52610199999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -2195,7 +2458,7 @@
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2207,7 +2470,7 @@
         <v>0.55717699999999992</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2221,7 +2484,7 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2234,6 +2497,9 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
@@ -2244,12 +2510,15 @@
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2532,7 @@
         <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2276,6 +2545,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
       <c r="B68" t="s">
         <v>37</v>
       </c>
@@ -2286,12 +2558,18 @@
         <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
       <c r="B69" t="s">
         <v>37</v>
       </c>
@@ -2302,12 +2580,15 @@
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -2321,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2333,10 +2614,10 @@
         <v>0.63609900000000019</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2350,7 +2631,7 @@
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2362,10 +2643,13 @@
         <v>0.62484399999999996</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
@@ -2376,12 +2660,18 @@
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
@@ -2392,12 +2682,15 @@
         <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2704,7 @@
         <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2424,6 +2717,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
@@ -2434,12 +2730,18 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
@@ -2450,12 +2752,18 @@
         <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
@@ -2466,12 +2774,15 @@
         <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2796,7 @@
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2498,6 +2809,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
       <c r="B79" t="s">
         <v>32</v>
       </c>
@@ -2508,12 +2822,18 @@
         <v>42</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
       <c r="B80" t="s">
         <v>33</v>
       </c>
@@ -2524,12 +2844,15 @@
         <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +2866,7 @@
         <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2555,7 +2878,7 @@
         <v>0.52695600000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -2569,7 +2892,7 @@
         <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2581,7 +2904,7 @@
         <v>0.55111100000000013</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2608,6 +2931,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
@@ -2618,12 +2944,15 @@
         <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -2637,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2650,6 +2979,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
@@ -2660,7 +2992,7 @@
         <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2672,10 +3004,10 @@
         <v>0.19199999999999995</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2689,7 +3021,7 @@
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2701,7 +3033,7 @@
         <v>0.63012000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +3047,7 @@
         <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2727,10 +3059,10 @@
         <v>0.74433599999999989</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2744,7 +3076,7 @@
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2757,6 +3089,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
       <c r="B90" t="s">
         <v>35</v>
       </c>
@@ -2767,12 +3102,15 @@
         <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -2786,7 +3124,7 @@
         <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2798,10 +3136,13 @@
         <v>0.57072999999999996</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2812,15 +3153,18 @@
         <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +3178,7 @@
         <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2847,6 +3191,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
       <c r="B94" t="s">
         <v>21</v>
       </c>
@@ -2857,12 +3204,15 @@
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -2876,7 +3226,7 @@
         <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2889,6 +3239,9 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
@@ -2899,12 +3252,18 @@
         <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
@@ -2915,14 +3274,17 @@
         <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -2937,16 +3299,16 @@
         <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -2960,7 +3322,7 @@
         <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2972,7 +3334,7 @@
         <v>0.63952200000000015</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +3348,7 @@
         <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2999,6 +3361,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
@@ -3009,12 +3374,18 @@
         <v>42</v>
       </c>
       <c r="E101" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
@@ -3025,12 +3396,15 @@
         <v>42</v>
       </c>
       <c r="E102" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -3044,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3056,7 +3430,7 @@
         <v>0.41237400000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -3070,7 +3444,7 @@
         <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3082,7 +3456,7 @@
         <v>0.47079700000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3096,7 +3470,7 @@
         <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3109,6 +3483,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
       <c r="B106" t="s">
         <v>17</v>
       </c>
@@ -3119,12 +3496,15 @@
         <v>41</v>
       </c>
       <c r="E106" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3138,7 +3518,7 @@
         <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3151,6 +3531,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
@@ -3161,12 +3544,15 @@
         <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3180,7 +3566,7 @@
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3192,7 +3578,7 @@
         <v>0.41013100000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -3206,7 +3592,7 @@
         <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3219,6 +3605,9 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
@@ -3229,15 +3618,18 @@
         <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3643,7 @@
         <v>42</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3264,6 +3656,9 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
@@ -3274,12 +3669,21 @@
         <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>129</v>
+      </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
@@ -3290,12 +3694,15 @@
         <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -3309,7 +3716,7 @@
         <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3322,6 +3729,9 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
@@ -3332,12 +3742,21 @@
         <v>40</v>
       </c>
       <c r="E116" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
@@ -3348,12 +3767,18 @@
         <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
@@ -3364,12 +3789,15 @@
         <v>42</v>
       </c>
       <c r="E118" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3383,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3396,6 +3824,9 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
@@ -3406,12 +3837,15 @@
         <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3425,7 +3859,7 @@
         <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3437,10 +3871,13 @@
         <v>0.47065400000000013</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
       <c r="B122" t="s">
         <v>18</v>
       </c>
@@ -3451,12 +3888,21 @@
         <v>42</v>
       </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
+      <c r="I122" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
       <c r="B123" t="s">
         <v>27</v>
       </c>
@@ -3467,12 +3913,18 @@
         <v>40</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
       <c r="B124" t="s">
         <v>27</v>
       </c>
@@ -3483,12 +3935,15 @@
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3957,7 @@
         <v>42</v>
       </c>
       <c r="E125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3515,6 +3970,9 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
       <c r="B126" t="s">
         <v>25</v>
       </c>
@@ -3525,12 +3983,18 @@
         <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
       <c r="B127" t="s">
         <v>25</v>
       </c>
@@ -3541,12 +4005,18 @@
         <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
       <c r="B128" t="s">
         <v>23</v>
       </c>
@@ -3557,12 +4027,15 @@
         <v>40</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -3576,7 +4049,7 @@
         <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3588,7 +4061,7 @@
         <v>0.56223000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -3602,7 +4075,7 @@
         <v>42</v>
       </c>
       <c r="E130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3614,10 +4087,10 @@
         <v>0.49349200000000004</v>
       </c>
       <c r="I130" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -3631,7 +4104,7 @@
         <v>40</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3644,6 +4117,9 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
       <c r="B132" t="s">
         <v>29</v>
       </c>
@@ -3654,12 +4130,18 @@
         <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
       <c r="B133" t="s">
         <v>24</v>
       </c>
@@ -3670,12 +4152,15 @@
         <v>40</v>
       </c>
       <c r="E133" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3689,7 +4174,7 @@
         <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3702,6 +4187,9 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
       <c r="B135" t="s">
         <v>17</v>
       </c>
@@ -3712,12 +4200,18 @@
         <v>42</v>
       </c>
       <c r="E135" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
@@ -3728,12 +4222,15 @@
         <v>42</v>
       </c>
       <c r="E136" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +4244,7 @@
         <v>40</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -3759,10 +4256,10 @@
         <v>0.43819900000000001</v>
       </c>
       <c r="I137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -3788,10 +4285,13 @@
         <v>0.657308</v>
       </c>
       <c r="I138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>131</v>
+      </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
@@ -3802,12 +4302,15 @@
         <v>42</v>
       </c>
       <c r="E139" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3821,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -3833,10 +4336,10 @@
         <v>0.47940600000000011</v>
       </c>
       <c r="I140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3850,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3862,12 +4365,12 @@
         <v>0.49071500000000001</v>
       </c>
       <c r="I141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>20</v>
@@ -3879,22 +4382,25 @@
         <v>42</v>
       </c>
       <c r="E142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
@@ -3905,12 +4411,15 @@
         <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3924,7 +4433,7 @@
         <v>42</v>
       </c>
       <c r="E144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -3936,7 +4445,7 @@
         <v>0.49227200000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -3950,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="E145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -3963,6 +4472,9 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
       <c r="B146" t="s">
         <v>28</v>
       </c>
@@ -3973,14 +4485,17 @@
         <v>41</v>
       </c>
       <c r="E146" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s">
         <v>27</v>
@@ -3992,7 +4507,7 @@
         <v>42</v>
       </c>
       <c r="E147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4004,10 +4519,13 @@
         <v>0.65440699999999996</v>
       </c>
       <c r="I147" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>36</v>
+      </c>
       <c r="B148" t="s">
         <v>36</v>
       </c>
@@ -4018,12 +4536,15 @@
         <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -4037,9 +4558,9 @@
         <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>87</v>
-      </c>
-      <c r="F149" s="11">
+        <v>86</v>
+      </c>
+      <c r="F149" s="10">
         <v>1</v>
       </c>
       <c r="G149" s="3">
@@ -4049,12 +4570,12 @@
         <v>0.58651799999999998</v>
       </c>
       <c r="I149" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
@@ -4066,7 +4587,7 @@
         <v>42</v>
       </c>
       <c r="E150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4078,10 +4599,10 @@
         <v>0.82518799999999992</v>
       </c>
       <c r="I150" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -4095,7 +4616,7 @@
         <v>40</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4108,6 +4629,9 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
       <c r="B152" t="s">
         <v>34</v>
       </c>
@@ -4118,12 +4642,18 @@
         <v>41</v>
       </c>
       <c r="E152" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>38</v>
+      </c>
       <c r="B153" t="s">
         <v>38</v>
       </c>
@@ -4134,12 +4664,15 @@
         <v>40</v>
       </c>
       <c r="E153" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -4153,7 +4686,7 @@
         <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4166,6 +4699,9 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
       <c r="B155" t="s">
         <v>23</v>
       </c>
@@ -4176,12 +4712,15 @@
         <v>42</v>
       </c>
       <c r="E155" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -4195,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4207,10 +4746,10 @@
         <v>0.5377860000000001</v>
       </c>
       <c r="I156" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -4224,7 +4763,7 @@
         <v>41</v>
       </c>
       <c r="E157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4237,6 +4776,9 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
       <c r="B158" t="s">
         <v>29</v>
       </c>
@@ -4247,12 +4789,21 @@
         <v>42</v>
       </c>
       <c r="E158" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
+      <c r="I158" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
       <c r="B159" t="s">
         <v>24</v>
       </c>
@@ -4263,12 +4814,15 @@
         <v>42</v>
       </c>
       <c r="E159" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -4282,7 +4836,7 @@
         <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4294,7 +4848,7 @@
         <v>0.57758999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -4308,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="E161" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4320,7 +4874,7 @@
         <v>0.63211400000000006</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -4334,7 +4888,7 @@
         <v>40</v>
       </c>
       <c r="E162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4346,10 +4900,13 @@
         <v>0.710781</v>
       </c>
       <c r="I162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>33</v>
+      </c>
       <c r="B163" t="s">
         <v>33</v>
       </c>
@@ -4360,12 +4917,15 @@
         <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4379,7 +4939,7 @@
         <v>42</v>
       </c>
       <c r="E164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4392,6 +4952,9 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
       <c r="B165" t="s">
         <v>35</v>
       </c>
@@ -4402,7 +4965,7 @@
         <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4410,10 +4973,13 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>35</v>
+      </c>
       <c r="B166" t="s">
         <v>35</v>
       </c>
@@ -4424,12 +4990,18 @@
         <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -4443,7 +5015,7 @@
         <v>42</v>
       </c>
       <c r="E167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4456,6 +5028,9 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>32</v>
+      </c>
       <c r="B168" t="s">
         <v>32</v>
       </c>
@@ -4466,7 +5041,7 @@
         <v>40</v>
       </c>
       <c r="E168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4474,10 +5049,13 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>32</v>
+      </c>
       <c r="B169" t="s">
         <v>32</v>
       </c>
@@ -4488,12 +5066,18 @@
         <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
       <c r="B170" t="s">
         <v>28</v>
       </c>
@@ -4504,12 +5088,15 @@
         <v>42</v>
       </c>
       <c r="E170" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -4523,7 +5110,7 @@
         <v>42</v>
       </c>
       <c r="E171" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -4536,6 +5123,9 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
       <c r="B172" t="s">
         <v>14</v>
       </c>
@@ -4546,12 +5136,18 @@
         <v>40</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
       <c r="B173" t="s">
         <v>14</v>
       </c>
@@ -4562,12 +5158,18 @@
         <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
@@ -4578,12 +5180,15 @@
         <v>40</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +5202,7 @@
         <v>41</v>
       </c>
       <c r="E175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4610,6 +5215,9 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>34</v>
+      </c>
       <c r="B176" t="s">
         <v>34</v>
       </c>
@@ -4620,12 +5228,15 @@
         <v>42</v>
       </c>
       <c r="E176" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -4639,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -4651,7 +5262,7 @@
         <v>0.56962500000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +5276,7 @@
         <v>41</v>
       </c>
       <c r="E178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4677,7 +5288,7 @@
         <v>0.56498199999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -4691,7 +5302,7 @@
         <v>40</v>
       </c>
       <c r="E179" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -4704,6 +5315,9 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
@@ -4714,12 +5328,15 @@
         <v>41</v>
       </c>
       <c r="E180" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4733,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="E181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -4746,6 +5363,9 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>37</v>
+      </c>
       <c r="B182" t="s">
         <v>37</v>
       </c>
@@ -4756,14 +5376,17 @@
         <v>42</v>
       </c>
       <c r="E182" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
@@ -4775,7 +5398,7 @@
         <v>42</v>
       </c>
       <c r="E183" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -4787,10 +5410,13 @@
         <v>0.60527200000000003</v>
       </c>
       <c r="I183" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
       <c r="B184" t="s">
         <v>21</v>
       </c>
@@ -4801,12 +5427,15 @@
         <v>40</v>
       </c>
       <c r="E184" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -4820,7 +5449,7 @@
         <v>41</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4832,7 +5461,7 @@
         <v>0.57660700000000009</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -4846,7 +5475,7 @@
         <v>40</v>
       </c>
       <c r="E186" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -4858,7 +5487,7 @@
         <v>0.53184300000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4872,7 +5501,7 @@
         <v>41</v>
       </c>
       <c r="E187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -4885,6 +5514,9 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>33</v>
+      </c>
       <c r="B188" t="s">
         <v>33</v>
       </c>
@@ -4895,12 +5527,15 @@
         <v>42</v>
       </c>
       <c r="E188" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -4914,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="E189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -4927,6 +5562,9 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
       <c r="B190" t="s">
         <v>19</v>
       </c>
@@ -4937,12 +5575,18 @@
         <v>41</v>
       </c>
       <c r="E190" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
       <c r="B191" t="s">
         <v>18</v>
       </c>
@@ -4953,12 +5597,18 @@
         <v>40</v>
       </c>
       <c r="E191" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
       <c r="B192" t="s">
         <v>18</v>
       </c>
@@ -4969,12 +5619,15 @@
         <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -4988,7 +5641,7 @@
         <v>42</v>
       </c>
       <c r="E193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -5000,7 +5653,10 @@
         <v>0.55502400000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>32</v>
+      </c>
       <c r="B194" t="s">
         <v>32</v>
       </c>
@@ -5011,14 +5667,17 @@
         <v>42</v>
       </c>
       <c r="E194" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
@@ -5033,16 +5692,16 @@
         <v>39</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -5056,7 +5715,7 @@
         <v>42</v>
       </c>
       <c r="E196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5068,7 +5727,7 @@
         <v>0.44464400000000015</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -5082,7 +5741,7 @@
         <v>40</v>
       </c>
       <c r="E197" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -5094,7 +5753,7 @@
         <v>0.56610199999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -5108,7 +5767,7 @@
         <v>41</v>
       </c>
       <c r="E198" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -5120,7 +5779,10 @@
         <v>0.48321500000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
       <c r="B199" t="s">
         <v>19</v>
       </c>
@@ -5131,12 +5793,18 @@
         <v>42</v>
       </c>
       <c r="E199" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>117</v>
+      </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
@@ -5147,12 +5815,18 @@
         <v>42</v>
       </c>
       <c r="E200" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -5166,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="E201" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -5178,7 +5852,7 @@
         <v>0.54448699999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -5192,7 +5866,7 @@
         <v>41</v>
       </c>
       <c r="E202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5204,7 +5878,7 @@
         <v>0.64848399999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -5218,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="E203" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5230,7 +5904,10 @@
         <v>0.63181000000000009</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>132</v>
+      </c>
       <c r="B204" t="s">
         <v>20</v>
       </c>
@@ -5241,12 +5918,18 @@
         <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -5260,7 +5943,7 @@
         <v>42</v>
       </c>
       <c r="E205" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -5272,7 +5955,10 @@
         <v>0.54351100000000008</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
@@ -5283,12 +5969,15 @@
         <v>40</v>
       </c>
       <c r="E206" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5302,7 +5991,7 @@
         <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -5314,7 +6003,7 @@
         <v>0.55404500000000012</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -5328,7 +6017,7 @@
         <v>40</v>
       </c>
       <c r="E208" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -5341,6 +6030,9 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
       <c r="B209" t="s">
         <v>13</v>
       </c>
@@ -5351,12 +6043,21 @@
         <v>41</v>
       </c>
       <c r="E209" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
+      <c r="I209" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
@@ -5367,12 +6068,15 @@
         <v>42</v>
       </c>
       <c r="E210" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -5386,7 +6090,7 @@
         <v>42</v>
       </c>
       <c r="E211" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -5399,6 +6103,9 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
@@ -5409,12 +6116,18 @@
         <v>40</v>
       </c>
       <c r="E212" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
@@ -5425,12 +6138,18 @@
         <v>41</v>
       </c>
       <c r="E213" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
       <c r="B214" t="s">
         <v>14</v>
       </c>
@@ -5441,12 +6160,15 @@
         <v>42</v>
       </c>
       <c r="E214" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -5460,7 +6182,7 @@
         <v>42</v>
       </c>
       <c r="E215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -5473,6 +6195,9 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
       <c r="B216" t="s">
         <v>12</v>
       </c>
@@ -5483,12 +6208,21 @@
         <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
+      <c r="I216" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
       <c r="B217" t="s">
         <v>12</v>
       </c>
@@ -5499,12 +6233,18 @@
         <v>41</v>
       </c>
       <c r="E217" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
@@ -5515,12 +6255,15 @@
         <v>40</v>
       </c>
       <c r="E218" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5534,7 +6277,7 @@
         <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5547,6 +6290,9 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>29</v>
+      </c>
       <c r="B220" t="s">
         <v>29</v>
       </c>
@@ -5557,12 +6303,21 @@
         <v>40</v>
       </c>
       <c r="E220" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
+      <c r="I220" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>29</v>
+      </c>
       <c r="B221" t="s">
         <v>29</v>
       </c>
@@ -5573,12 +6328,15 @@
         <v>41</v>
       </c>
       <c r="E221" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -5592,7 +6350,7 @@
         <v>42</v>
       </c>
       <c r="E222" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5604,7 +6362,7 @@
         <v>0.54900799999999994</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -5618,10 +6376,10 @@
         <v>42</v>
       </c>
       <c r="E223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G223" s="3">
         <v>2.6080000000000001</v>
@@ -5630,10 +6388,13 @@
         <v>0.3919999999999999</v>
       </c>
       <c r="I223" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
       <c r="B224" t="s">
         <v>28</v>
       </c>
@@ -5644,12 +6405,18 @@
         <v>40</v>
       </c>
       <c r="E224" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
       <c r="B225" t="s">
         <v>28</v>
       </c>
@@ -5660,12 +6427,18 @@
         <v>41</v>
       </c>
       <c r="E225" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>26</v>
+      </c>
       <c r="B226" t="s">
         <v>26</v>
       </c>
@@ -5676,12 +6449,15 @@
         <v>40</v>
       </c>
       <c r="E226" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -5695,7 +6471,7 @@
         <v>41</v>
       </c>
       <c r="E227" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -5708,6 +6484,9 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
       <c r="B228" t="s">
         <v>20</v>
       </c>
@@ -5718,10 +6497,13 @@
         <v>42</v>
       </c>
       <c r="E228" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -5735,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="E229" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5748,6 +6530,9 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
       <c r="B230" t="s">
         <v>27</v>
       </c>
@@ -5758,12 +6543,18 @@
         <v>41</v>
       </c>
       <c r="E230" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
       <c r="B231" t="s">
         <v>30</v>
       </c>
@@ -5774,12 +6565,15 @@
         <v>40</v>
       </c>
       <c r="E231" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +6587,7 @@
         <v>41</v>
       </c>
       <c r="E232" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5805,7 +6599,7 @@
         <v>0.65477999999999992</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -5819,7 +6613,7 @@
         <v>42</v>
       </c>
       <c r="E233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -5832,6 +6626,9 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>143</v>
+      </c>
       <c r="B234" t="s">
         <v>13</v>
       </c>
@@ -5842,12 +6639,15 @@
         <v>42</v>
       </c>
       <c r="E234" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -5861,7 +6661,7 @@
         <v>40</v>
       </c>
       <c r="E235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -5873,7 +6673,7 @@
         <v>0.62969900000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -5887,7 +6687,7 @@
         <v>41</v>
       </c>
       <c r="E236" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -5900,6 +6700,9 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
       <c r="B237" t="s">
         <v>10</v>
       </c>
@@ -5910,12 +6713,15 @@
         <v>42</v>
       </c>
       <c r="E237" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
       </c>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -5929,7 +6735,7 @@
         <v>40</v>
       </c>
       <c r="E238" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -5941,7 +6747,7 @@
         <v>0.59397499999999992</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -5955,7 +6761,7 @@
         <v>41</v>
       </c>
       <c r="E239" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -5967,7 +6773,7 @@
         <v>0.53621899999999989</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -5981,7 +6787,7 @@
         <v>40</v>
       </c>
       <c r="E240" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -5994,6 +6800,9 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>25</v>
+      </c>
       <c r="B241" t="s">
         <v>25</v>
       </c>
@@ -6004,12 +6813,18 @@
         <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
       <c r="B242" t="s">
         <v>12</v>
       </c>
@@ -6020,12 +6835,15 @@
         <v>42</v>
       </c>
       <c r="E242" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6039,7 +6857,7 @@
         <v>42</v>
       </c>
       <c r="E243" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -6051,10 +6869,13 @@
         <v>0.41035699999999997</v>
       </c>
       <c r="I243" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>34</v>
+      </c>
       <c r="B244" t="s">
         <v>34</v>
       </c>
@@ -6065,12 +6886,15 @@
         <v>40</v>
       </c>
       <c r="E244" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -6084,7 +6908,7 @@
         <v>41</v>
       </c>
       <c r="E245" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -6096,7 +6920,7 @@
         <v>0.61756899999999992</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -6110,7 +6934,7 @@
         <v>42</v>
       </c>
       <c r="E246" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -6122,10 +6946,13 @@
         <v>0.55949199999999988</v>
       </c>
       <c r="I246" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>28</v>
+      </c>
       <c r="B247" t="s">
         <v>28</v>
       </c>
@@ -6136,12 +6963,15 @@
         <v>42</v>
       </c>
       <c r="E247" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
       </c>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>37</v>
       </c>
@@ -6155,7 +6985,7 @@
         <v>40</v>
       </c>
       <c r="E248" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -6168,6 +6998,9 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>37</v>
+      </c>
       <c r="B249" t="s">
         <v>37</v>
       </c>
@@ -6178,15 +7011,18 @@
         <v>41</v>
       </c>
       <c r="E249" t="s">
-        <v>87</v>
-      </c>
-      <c r="F249" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
       </c>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>32</v>
+      </c>
       <c r="B250" t="s">
         <v>32</v>
       </c>
@@ -6197,12 +7033,15 @@
         <v>40</v>
       </c>
       <c r="E250" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
       </c>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -6216,7 +7055,7 @@
         <v>41</v>
       </c>
       <c r="E251" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -6229,6 +7068,9 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>26</v>
+      </c>
       <c r="B252" t="s">
         <v>26</v>
       </c>
@@ -6239,12 +7081,15 @@
         <v>42</v>
       </c>
       <c r="E252" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
       </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -6258,7 +7103,7 @@
         <v>40</v>
       </c>
       <c r="E253" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -6270,7 +7115,7 @@
         <v>0.51792999999999989</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>36</v>
       </c>
@@ -6284,7 +7129,7 @@
         <v>41</v>
       </c>
       <c r="E254" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -6297,6 +7142,9 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>27</v>
+      </c>
       <c r="B255" t="s">
         <v>27</v>
       </c>
@@ -6307,12 +7155,15 @@
         <v>42</v>
       </c>
       <c r="E255" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -6326,7 +7177,7 @@
         <v>42</v>
       </c>
       <c r="E256" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -6339,6 +7190,9 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
       <c r="B257" t="s">
         <v>24</v>
       </c>
@@ -6349,12 +7203,18 @@
         <v>42</v>
       </c>
       <c r="E257" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
       </c>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I257" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>38</v>
       </c>
@@ -6368,7 +7228,7 @@
         <v>40</v>
       </c>
       <c r="E258" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -6380,7 +7240,7 @@
         <v>0.62909199999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>38</v>
       </c>
@@ -6394,7 +7254,7 @@
         <v>41</v>
       </c>
       <c r="E259" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -6406,7 +7266,7 @@
         <v>0.64458799999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>35</v>
       </c>
@@ -6420,7 +7280,7 @@
         <v>40</v>
       </c>
       <c r="E260" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -6433,6 +7293,9 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>35</v>
+      </c>
       <c r="B261" t="s">
         <v>35</v>
       </c>
@@ -6443,12 +7306,18 @@
         <v>41</v>
       </c>
       <c r="E261" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
       </c>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>33</v>
+      </c>
       <c r="B262" t="s">
         <v>33</v>
       </c>
@@ -6459,12 +7328,18 @@
         <v>40</v>
       </c>
       <c r="E262" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
       </c>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>133</v>
+      </c>
       <c r="B263" t="s">
         <v>33</v>
       </c>
@@ -6475,12 +7350,15 @@
         <v>41</v>
       </c>
       <c r="E263" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
       </c>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -6494,7 +7372,7 @@
         <v>42</v>
       </c>
       <c r="E264" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -6507,6 +7385,9 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
       <c r="B265" t="s">
         <v>31</v>
       </c>
@@ -6517,12 +7398,18 @@
         <v>40</v>
       </c>
       <c r="E265" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
       <c r="B266" t="s">
         <v>31</v>
       </c>
@@ -6533,12 +7420,15 @@
         <v>41</v>
       </c>
       <c r="E266" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -6552,7 +7442,7 @@
         <v>42</v>
       </c>
       <c r="E267" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -6565,6 +7455,9 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>16</v>
+      </c>
       <c r="B268" t="s">
         <v>16</v>
       </c>
@@ -6575,12 +7468,18 @@
         <v>40</v>
       </c>
       <c r="E268" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
       <c r="B269" t="s">
         <v>16</v>
       </c>
@@ -6591,14 +7490,17 @@
         <v>41</v>
       </c>
       <c r="E269" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B270" t="s">
         <v>34</v>
@@ -6610,10 +7512,10 @@
         <v>42</v>
       </c>
       <c r="E270" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G270" s="3">
         <v>0.83251500000000001</v>
@@ -6623,6 +7525,9 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>19</v>
+      </c>
       <c r="B271" t="s">
         <v>19</v>
       </c>
@@ -6633,12 +7538,15 @@
         <v>40</v>
       </c>
       <c r="E271" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -6652,7 +7560,7 @@
         <v>41</v>
       </c>
       <c r="E272" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -6664,10 +7572,10 @@
         <v>0.57860700000000009</v>
       </c>
       <c r="I272" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +7589,7 @@
         <v>40</v>
       </c>
       <c r="E273" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -6693,7 +7601,7 @@
         <v>0.58300600000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -6707,7 +7615,7 @@
         <v>41</v>
       </c>
       <c r="E274" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -6720,6 +7628,9 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>135</v>
+      </c>
       <c r="B275" t="s">
         <v>37</v>
       </c>
@@ -6730,12 +7641,15 @@
         <v>42</v>
       </c>
       <c r="E275" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
       </c>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -6749,7 +7663,7 @@
         <v>42</v>
       </c>
       <c r="E276" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -6761,7 +7675,7 @@
         <v>0.62255499999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>18</v>
       </c>
@@ -6775,7 +7689,7 @@
         <v>40</v>
       </c>
       <c r="E277" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -6788,6 +7702,9 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
       <c r="B278" t="s">
         <v>18</v>
       </c>
@@ -6798,12 +7715,18 @@
         <v>41</v>
       </c>
       <c r="E278" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
       </c>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>8</v>
+      </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
@@ -6814,12 +7737,15 @@
         <v>40</v>
       </c>
       <c r="E279" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
       </c>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -6833,7 +7759,7 @@
         <v>41</v>
       </c>
       <c r="E280" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -6846,6 +7772,9 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>36</v>
+      </c>
       <c r="B281" t="s">
         <v>36</v>
       </c>
@@ -6856,12 +7785,15 @@
         <v>42</v>
       </c>
       <c r="E281" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
       </c>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -6875,7 +7807,7 @@
         <v>40</v>
       </c>
       <c r="E282" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6887,7 +7819,7 @@
         <v>0.40516500000000011</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -6901,7 +7833,7 @@
         <v>41</v>
       </c>
       <c r="E283" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -6914,6 +7846,9 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>38</v>
+      </c>
       <c r="B284" t="s">
         <v>38</v>
       </c>
@@ -6924,12 +7859,15 @@
         <v>42</v>
       </c>
       <c r="E284" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
       </c>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -6943,7 +7881,7 @@
         <v>40</v>
       </c>
       <c r="E285" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -6956,6 +7894,9 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
       <c r="B286" t="s">
         <v>14</v>
       </c>
@@ -6966,12 +7907,18 @@
         <v>41</v>
       </c>
       <c r="E286" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
       </c>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>21</v>
+      </c>
       <c r="B287" t="s">
         <v>21</v>
       </c>
@@ -6982,12 +7929,18 @@
         <v>40</v>
       </c>
       <c r="E287" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
       </c>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>21</v>
+      </c>
       <c r="B288" t="s">
         <v>21</v>
       </c>
@@ -6998,12 +7951,15 @@
         <v>41</v>
       </c>
       <c r="E288" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
       </c>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>35</v>
       </c>
@@ -7017,7 +7973,7 @@
         <v>42</v>
       </c>
       <c r="E289" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -7030,6 +7986,9 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>33</v>
+      </c>
       <c r="B290" t="s">
         <v>33</v>
       </c>
@@ -7040,12 +7999,15 @@
         <v>42</v>
       </c>
       <c r="E290" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
       </c>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>31</v>
       </c>
@@ -7059,7 +8021,7 @@
         <v>42</v>
       </c>
       <c r="E291" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -7071,12 +8033,12 @@
         <v>0.62680099999999994</v>
       </c>
       <c r="I291" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B292" t="s">
         <v>39</v>
@@ -7091,10 +8053,10 @@
         <v>39</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -7108,7 +8070,7 @@
         <v>42</v>
       </c>
       <c r="E293" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -7120,10 +8082,10 @@
         <v>0.58998399999999995</v>
       </c>
       <c r="I293" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -7137,7 +8099,7 @@
         <v>40</v>
       </c>
       <c r="E294" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -7149,10 +8111,10 @@
         <v>0.39328200000000002</v>
       </c>
       <c r="I294" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7166,7 +8128,7 @@
         <v>41</v>
       </c>
       <c r="E295" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -7179,6 +8141,9 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>136</v>
+      </c>
       <c r="B296" t="s">
         <v>14</v>
       </c>
@@ -7189,12 +8154,15 @@
         <v>42</v>
       </c>
       <c r="E296" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
       </c>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -7208,7 +8176,7 @@
         <v>42</v>
       </c>
       <c r="E297" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -7220,10 +8188,13 @@
         <v>0.68063300000000004</v>
       </c>
       <c r="I297" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>8</v>
+      </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
@@ -7234,12 +8205,15 @@
         <v>42</v>
       </c>
       <c r="E298" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
       </c>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -7253,7 +8227,7 @@
         <v>40</v>
       </c>
       <c r="E299" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -7265,10 +8239,10 @@
         <v>0.67379600000000006</v>
       </c>
       <c r="I299" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -7282,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="E300" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -7294,10 +8268,10 @@
         <v>0.71520600000000001</v>
       </c>
       <c r="I300" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -7311,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="E301" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -7323,10 +8297,13 @@
         <v>0.50787500000000008</v>
       </c>
       <c r="I301" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
       <c r="B302" t="s">
         <v>10</v>
       </c>
@@ -7337,12 +8314,18 @@
         <v>41</v>
       </c>
       <c r="E302" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
       </c>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>16</v>
+      </c>
       <c r="B303" t="s">
         <v>16</v>
       </c>
@@ -7353,12 +8336,18 @@
         <v>42</v>
       </c>
       <c r="E303" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
       </c>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
       <c r="B304" t="s">
         <v>12</v>
       </c>
@@ -7369,12 +8358,15 @@
         <v>40</v>
       </c>
       <c r="E304" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
       </c>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7388,7 +8380,7 @@
         <v>41</v>
       </c>
       <c r="E305" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -7400,10 +8392,10 @@
         <v>0.59446599999999994</v>
       </c>
       <c r="I305" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -7417,7 +8409,7 @@
         <v>40</v>
       </c>
       <c r="E306" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -7429,10 +8421,13 @@
         <v>0.61391600000000002</v>
       </c>
       <c r="I306" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
       <c r="B307" t="s">
         <v>10</v>
       </c>
@@ -7443,12 +8438,15 @@
         <v>41</v>
       </c>
       <c r="E307" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
       </c>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -7462,7 +8460,7 @@
         <v>42</v>
       </c>
       <c r="E308" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -7474,10 +8472,13 @@
         <v>0.6731069999999999</v>
       </c>
       <c r="I308" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
       <c r="B309" t="s">
         <v>13</v>
       </c>
@@ -7488,12 +8489,18 @@
         <v>40</v>
       </c>
       <c r="E309" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
       </c>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
       <c r="B310" t="s">
         <v>13</v>
       </c>
@@ -7504,12 +8511,18 @@
         <v>41</v>
       </c>
       <c r="E310" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
       </c>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
       <c r="B311" t="s">
         <v>22</v>
       </c>
@@ -7520,12 +8533,15 @@
         <v>42</v>
       </c>
       <c r="E311" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
       </c>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -7539,7 +8555,7 @@
         <v>42</v>
       </c>
       <c r="E312" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -7551,10 +8567,13 @@
         <v>0.56213100000000005</v>
       </c>
       <c r="I312" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
       <c r="B313" t="s">
         <v>6</v>
       </c>
@@ -7565,12 +8584,18 @@
         <v>40</v>
       </c>
       <c r="E313" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
       </c>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>137</v>
+      </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
@@ -7581,12 +8606,18 @@
         <v>41</v>
       </c>
       <c r="E314" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
       </c>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>138</v>
+      </c>
       <c r="B315" t="s">
         <v>17</v>
       </c>
@@ -7597,12 +8628,15 @@
         <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
       </c>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -7616,7 +8650,7 @@
         <v>41</v>
       </c>
       <c r="E316" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -7628,10 +8662,13 @@
         <v>0.67847199999999996</v>
       </c>
       <c r="I316" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>30</v>
+      </c>
       <c r="B317" t="s">
         <v>30</v>
       </c>
@@ -7642,12 +8679,18 @@
         <v>40</v>
       </c>
       <c r="E317" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
       </c>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>30</v>
+      </c>
       <c r="B318" t="s">
         <v>30</v>
       </c>
@@ -7658,12 +8701,15 @@
         <v>41</v>
       </c>
       <c r="E318" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
       </c>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -7677,7 +8723,7 @@
         <v>42</v>
       </c>
       <c r="E319" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -7689,10 +8735,13 @@
         <v>0.47042500000000009</v>
       </c>
       <c r="I319" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>26</v>
+      </c>
       <c r="B320" t="s">
         <v>26</v>
       </c>
@@ -7703,12 +8752,18 @@
         <v>40</v>
       </c>
       <c r="E320" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
       </c>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>26</v>
+      </c>
       <c r="B321" t="s">
         <v>26</v>
       </c>
@@ -7719,12 +8774,15 @@
         <v>41</v>
       </c>
       <c r="E321" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
       </c>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>20</v>
       </c>
@@ -7738,7 +8796,7 @@
         <v>42</v>
       </c>
       <c r="E322" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -7750,10 +8808,13 @@
         <v>0.66937000000000002</v>
       </c>
       <c r="I322" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>139</v>
+      </c>
       <c r="B323" t="s">
         <v>28</v>
       </c>
@@ -7764,12 +8825,15 @@
         <v>40</v>
       </c>
       <c r="E323" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
       </c>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>28</v>
       </c>
@@ -7783,7 +8847,7 @@
         <v>41</v>
       </c>
       <c r="E324" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -7795,10 +8859,10 @@
         <v>0.74345500000000009</v>
       </c>
       <c r="I324" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -7812,7 +8876,7 @@
         <v>40</v>
       </c>
       <c r="E325" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7825,6 +8889,9 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
       <c r="B326" t="s">
         <v>24</v>
       </c>
@@ -7835,12 +8902,18 @@
         <v>41</v>
       </c>
       <c r="E326" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
       </c>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
       <c r="B327" t="s">
         <v>10</v>
       </c>
@@ -7851,12 +8924,15 @@
         <v>42</v>
       </c>
       <c r="E327" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
       </c>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -7870,7 +8946,7 @@
         <v>42</v>
       </c>
       <c r="E328" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -7882,10 +8958,13 @@
         <v>0.46705400000000008</v>
       </c>
       <c r="I328" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
       <c r="B329" t="s">
         <v>10</v>
       </c>
@@ -7896,12 +8975,18 @@
         <v>42</v>
       </c>
       <c r="E329" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
       </c>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>29</v>
+      </c>
       <c r="B330" t="s">
         <v>29</v>
       </c>
@@ -7912,12 +8997,15 @@
         <v>40</v>
       </c>
       <c r="E330" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
       </c>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -7931,7 +9019,7 @@
         <v>41</v>
       </c>
       <c r="E331" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -7943,7 +9031,7 @@
         <v>0.66795100000000007</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>25</v>
       </c>
@@ -7957,7 +9045,7 @@
         <v>40</v>
       </c>
       <c r="E332" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -7969,7 +9057,7 @@
         <v>0.64998199999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>25</v>
       </c>
@@ -7983,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="E333" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -7996,6 +9084,9 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
       <c r="B334" t="s">
         <v>13</v>
       </c>
@@ -8006,13 +9097,16 @@
         <v>42</v>
       </c>
       <c r="E334" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
       </c>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="10" t="s">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>27</v>
       </c>
       <c r="B335" t="s">
@@ -8025,7 +9119,7 @@
         <v>40</v>
       </c>
       <c r="E335" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -8037,10 +9131,10 @@
         <v>0.63577600000000001</v>
       </c>
       <c r="I335" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -8054,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="E336" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -8066,10 +9160,13 @@
         <v>0.64838799999999996</v>
       </c>
       <c r="I336" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>140</v>
+      </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
@@ -8080,12 +9177,15 @@
         <v>42</v>
       </c>
       <c r="E337" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
       </c>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -8099,7 +9199,7 @@
         <v>42</v>
       </c>
       <c r="E338" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -8111,10 +9211,10 @@
         <v>0.65382699999999994</v>
       </c>
       <c r="I338" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>23</v>
       </c>
@@ -8128,7 +9228,7 @@
         <v>40</v>
       </c>
       <c r="E339" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -8141,6 +9241,9 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -8151,12 +9254,18 @@
         <v>41</v>
       </c>
       <c r="E340" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>35</v>
+      </c>
       <c r="B341" t="s">
         <v>35</v>
       </c>
@@ -8167,12 +9276,15 @@
         <v>40</v>
       </c>
       <c r="E341" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>35</v>
       </c>
@@ -8186,7 +9298,7 @@
         <v>41</v>
       </c>
       <c r="E342" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -8198,12 +9310,12 @@
         <v>0.55781999999999998</v>
       </c>
       <c r="I342" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B343" t="s">
         <v>31</v>
@@ -8215,10 +9327,10 @@
         <v>40</v>
       </c>
       <c r="E343" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G343" s="3">
         <v>0.67396699999999998</v>
@@ -8227,10 +9339,13 @@
         <v>0.57416200000000006</v>
       </c>
       <c r="I343" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>31</v>
+      </c>
       <c r="B344" t="s">
         <v>31</v>
       </c>
@@ -8241,12 +9356,15 @@
         <v>41</v>
       </c>
       <c r="E344" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
       </c>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>30</v>
       </c>
@@ -8260,7 +9378,7 @@
         <v>42</v>
       </c>
       <c r="E345" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -8273,6 +9391,9 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>26</v>
+      </c>
       <c r="B346" t="s">
         <v>26</v>
       </c>
@@ -8283,12 +9404,18 @@
         <v>42</v>
       </c>
       <c r="E346" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
       </c>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>37</v>
+      </c>
       <c r="B347" t="s">
         <v>37</v>
       </c>
@@ -8299,12 +9426,15 @@
         <v>40</v>
       </c>
       <c r="E347" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
       </c>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>37</v>
       </c>
@@ -8318,7 +9448,7 @@
         <v>41</v>
       </c>
       <c r="E348" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -8331,6 +9461,9 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>141</v>
+      </c>
       <c r="B349" t="s">
         <v>28</v>
       </c>
@@ -8341,7 +9474,7 @@
         <v>42</v>
       </c>
       <c r="E349" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -8349,10 +9482,10 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -8366,7 +9499,7 @@
         <v>40</v>
       </c>
       <c r="E350" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -8378,7 +9511,7 @@
         <v>0.62507599999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -8392,7 +9525,7 @@
         <v>41</v>
       </c>
       <c r="E351" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -8405,6 +9538,9 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>142</v>
+      </c>
       <c r="B352" t="s">
         <v>24</v>
       </c>
@@ -8415,12 +9551,18 @@
         <v>42</v>
       </c>
       <c r="E352" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
       </c>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>29</v>
+      </c>
       <c r="B353" t="s">
         <v>29</v>
       </c>
@@ -8431,18 +9573,18 @@
         <v>42</v>
       </c>
       <c r="E353" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>32</v>
       </c>
@@ -8456,7 +9598,7 @@
         <v>40</v>
       </c>
       <c r="E354" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -8468,10 +9610,10 @@
         <v>0.70126200000000005</v>
       </c>
       <c r="I354" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +9627,7 @@
         <v>41</v>
       </c>
       <c r="E355" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -8497,7 +9639,7 @@
         <v>0.63604000000000005</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>38</v>
       </c>
@@ -8511,7 +9653,7 @@
         <v>40</v>
       </c>
       <c r="E356" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -8523,10 +9665,13 @@
         <v>0.67296500000000004</v>
       </c>
       <c r="I356" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>38</v>
+      </c>
       <c r="B357" t="s">
         <v>38</v>
       </c>
@@ -8537,12 +9682,15 @@
         <v>41</v>
       </c>
       <c r="E357" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
       </c>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>25</v>
       </c>
@@ -8556,7 +9704,7 @@
         <v>42</v>
       </c>
       <c r="E358" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -8568,7 +9716,7 @@
         <v>0.51921699999999993</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -8582,7 +9730,7 @@
         <v>42</v>
       </c>
       <c r="E359" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -8595,6 +9743,9 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>36</v>
+      </c>
       <c r="B360" t="s">
         <v>36</v>
       </c>
@@ -8605,7 +9756,7 @@
         <v>40</v>
       </c>
       <c r="E360" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F360" s="9">
         <v>1</v>
@@ -8613,10 +9764,13 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
       <c r="B361" t="s">
         <v>36</v>
       </c>
@@ -8627,13 +9781,16 @@
         <v>41</v>
       </c>
       <c r="E361" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
       </c>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A362" s="10" t="s">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>23</v>
       </c>
       <c r="B362" t="s">
@@ -8646,7 +9803,7 @@
         <v>42</v>
       </c>
       <c r="E362" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -8659,6 +9816,9 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>34</v>
+      </c>
       <c r="B363" t="s">
         <v>34</v>
       </c>
@@ -8669,12 +9829,18 @@
         <v>40</v>
       </c>
       <c r="E363" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
       </c>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>34</v>
+      </c>
       <c r="B364" t="s">
         <v>34</v>
       </c>
@@ -8685,13 +9851,16 @@
         <v>41</v>
       </c>
       <c r="E364" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
       </c>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A365" s="10" t="s">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>35</v>
       </c>
       <c r="B365" t="s">
@@ -8704,7 +9873,7 @@
         <v>42</v>
       </c>
       <c r="E365" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -8716,10 +9885,10 @@
         <v>0.57625699999999991</v>
       </c>
       <c r="I365" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>31</v>
       </c>
@@ -8733,7 +9902,7 @@
         <v>42</v>
       </c>
       <c r="E366" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -8746,6 +9915,9 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>19</v>
+      </c>
       <c r="B367" t="s">
         <v>19</v>
       </c>
@@ -8756,7 +9928,7 @@
         <v>40</v>
       </c>
       <c r="E367" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -8764,10 +9936,13 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="I367" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>19</v>
+      </c>
       <c r="B368" t="s">
         <v>19</v>
       </c>
@@ -8778,12 +9953,18 @@
         <v>41</v>
       </c>
       <c r="E368" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>14</v>
+      </c>
       <c r="B369" t="s">
         <v>14</v>
       </c>
@@ -8794,12 +9975,15 @@
         <v>40</v>
       </c>
       <c r="E369" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
       </c>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -8813,7 +9997,7 @@
         <v>41</v>
       </c>
       <c r="E370" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -8825,7 +10009,10 @@
         <v>0.59231</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>37</v>
+      </c>
       <c r="B371" t="s">
         <v>37</v>
       </c>
@@ -8836,12 +10023,15 @@
         <v>42</v>
       </c>
       <c r="E371" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
       </c>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -8855,7 +10045,7 @@
         <v>40</v>
       </c>
       <c r="E372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -8867,7 +10057,7 @@
         <v>0.66759299999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -8881,7 +10071,7 @@
         <v>41</v>
       </c>
       <c r="E373" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F373">
         <v>1</v>
@@ -8893,7 +10083,7 @@
         <v>0.68276499999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -8907,7 +10097,7 @@
         <v>40</v>
       </c>
       <c r="E374" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -8919,7 +10109,10 @@
         <v>0.63641800000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>8</v>
+      </c>
       <c r="B375" t="s">
         <v>8</v>
       </c>
@@ -8930,12 +10123,15 @@
         <v>41</v>
       </c>
       <c r="E375" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
       </c>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>33</v>
       </c>
@@ -8949,7 +10145,7 @@
         <v>42</v>
       </c>
       <c r="E376" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -8961,7 +10157,10 @@
         <v>0.63053200000000009</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>16</v>
+      </c>
       <c r="B377" t="s">
         <v>16</v>
       </c>
@@ -8972,12 +10171,15 @@
         <v>40</v>
       </c>
       <c r="E377" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
       </c>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -8991,7 +10193,7 @@
         <v>41</v>
       </c>
       <c r="E378" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -9003,7 +10205,7 @@
         <v>0.52047699999999997</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>21</v>
       </c>
@@ -9017,7 +10219,7 @@
         <v>40</v>
       </c>
       <c r="E379" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -9029,7 +10231,7 @@
         <v>0.67928000000000011</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>21</v>
       </c>
@@ -9043,7 +10245,7 @@
         <v>41</v>
       </c>
       <c r="E380" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -9055,7 +10257,10 @@
         <v>0.65789200000000003</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>32</v>
+      </c>
       <c r="B381" t="s">
         <v>32</v>
       </c>
@@ -9066,12 +10271,18 @@
         <v>42</v>
       </c>
       <c r="E381" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
       </c>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>38</v>
+      </c>
       <c r="B382" t="s">
         <v>38</v>
       </c>
@@ -9082,12 +10293,18 @@
         <v>42</v>
       </c>
       <c r="E382" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
       </c>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I382" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>22</v>
       </c>
@@ -9101,7 +10318,7 @@
         <v>40</v>
       </c>
       <c r="E383" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -9113,7 +10330,10 @@
         <v>0.64019899999999996</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>127</v>
+      </c>
       <c r="B384" t="s">
         <v>22</v>
       </c>
@@ -9124,12 +10344,18 @@
         <v>41</v>
       </c>
       <c r="E384" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
       </c>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
       <c r="B385" t="s">
         <v>11</v>
       </c>
@@ -9140,12 +10366,18 @@
         <v>40</v>
       </c>
       <c r="E385" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
       </c>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
       <c r="B386" t="s">
         <v>11</v>
       </c>
@@ -9156,12 +10388,15 @@
         <v>41</v>
       </c>
       <c r="E386" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
       </c>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>36</v>
       </c>
@@ -9175,7 +10410,7 @@
         <v>42</v>
       </c>
       <c r="E387" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -9188,6 +10423,9 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>34</v>
+      </c>
       <c r="B388" t="s">
         <v>34</v>
       </c>
@@ -9198,14 +10436,17 @@
         <v>42</v>
       </c>
       <c r="E388" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
       </c>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F394" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
